--- a/device_data.xlsx
+++ b/device_data.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/manpreet/Library/Mobile Documents/com~apple~CloudDocs/Downloads/udidcheck/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/manpreet/Documents/GitHub/p12check/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFFC70C1-928C-D944-93FD-A9FC6E8A74F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9A93E9B-4C2D-B644-9BCE-277F37BD0493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26700" xr2:uid="{39D45C72-288B-1D4A-959F-055744252364}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$1459</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -230,7 +233,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5970" uniqueCount="1486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5974" uniqueCount="1487">
   <si>
     <t>00008120-0010353E3C9B401E</t>
   </si>
@@ -4688,6 +4691,9 @@
   </si>
   <si>
     <t>developer_account_renewal_date</t>
+  </si>
+  <si>
+    <t>No Expiry</t>
   </si>
 </sst>
 </file>
@@ -5111,7 +5117,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5156,7 +5162,7 @@
         <v>1453</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>1457</v>
@@ -5196,7 +5202,7 @@
         <v>1453</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>1457</v>
@@ -5216,7 +5222,7 @@
         <v>1453</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>1457</v>
@@ -5236,7 +5242,7 @@
         <v>1453</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>1457</v>
@@ -5276,7 +5282,7 @@
         <v>1453</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>1457</v>
@@ -5296,7 +5302,7 @@
         <v>1453</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>1457</v>
@@ -5316,7 +5322,7 @@
         <v>1453</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>1457</v>
@@ -5356,7 +5362,7 @@
         <v>1453</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>1457</v>
@@ -5376,7 +5382,7 @@
         <v>1453</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>1457</v>
@@ -5456,7 +5462,7 @@
         <v>1455</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>1457</v>
@@ -5496,7 +5502,7 @@
         <v>1453</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>1457</v>
@@ -5516,7 +5522,7 @@
         <v>1453</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>1457</v>
@@ -5536,7 +5542,7 @@
         <v>1453</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>1457</v>
@@ -5576,7 +5582,7 @@
         <v>1453</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>1457</v>
@@ -5596,7 +5602,7 @@
         <v>1453</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>1457</v>
@@ -5616,7 +5622,7 @@
         <v>1453</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>1457</v>
@@ -5676,7 +5682,7 @@
         <v>1453</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>1457</v>
@@ -5696,7 +5702,7 @@
         <v>1453</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>1457</v>
@@ -5736,7 +5742,7 @@
         <v>1453</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>1457</v>
@@ -5776,7 +5782,7 @@
         <v>1453</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>1457</v>
@@ -5816,7 +5822,7 @@
         <v>1453</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>1457</v>
@@ -5876,7 +5882,7 @@
         <v>1453</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>1457</v>
@@ -5976,7 +5982,7 @@
         <v>1453</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>1457</v>
@@ -5996,7 +6002,7 @@
         <v>1453</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>1457</v>
@@ -6036,7 +6042,7 @@
         <v>1453</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>1457</v>
@@ -6056,7 +6062,7 @@
         <v>1453</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>1457</v>
@@ -6076,7 +6082,7 @@
         <v>1453</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>1457</v>
@@ -6116,7 +6122,7 @@
         <v>1453</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>1457</v>
@@ -6136,7 +6142,7 @@
         <v>1453</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>1457</v>
@@ -6176,7 +6182,7 @@
         <v>1453</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>1457</v>
@@ -6216,7 +6222,7 @@
         <v>1453</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>1457</v>
@@ -6236,7 +6242,7 @@
         <v>1453</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>1457</v>
@@ -6256,7 +6262,7 @@
         <v>1453</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>1457</v>
@@ -6276,7 +6282,7 @@
         <v>1453</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>1457</v>
@@ -6336,7 +6342,7 @@
         <v>1453</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>1457</v>
@@ -6356,7 +6362,7 @@
         <v>1453</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>1457</v>
@@ -6376,7 +6382,7 @@
         <v>1453</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>1457</v>
@@ -6396,7 +6402,7 @@
         <v>1453</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>1458</v>
@@ -6416,7 +6422,7 @@
         <v>1453</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>1457</v>
@@ -6496,7 +6502,7 @@
         <v>1453</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>1457</v>
@@ -6536,7 +6542,7 @@
         <v>1453</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>1457</v>
@@ -6556,7 +6562,7 @@
         <v>1453</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>1457</v>
@@ -6576,7 +6582,7 @@
         <v>1453</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>1457</v>
@@ -6596,7 +6602,7 @@
         <v>1455</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>1457</v>
@@ -6616,7 +6622,7 @@
         <v>1453</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>1457</v>
@@ -6636,7 +6642,7 @@
         <v>1453</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>1457</v>
@@ -6676,7 +6682,7 @@
         <v>1453</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>1457</v>
@@ -6696,7 +6702,7 @@
         <v>1453</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>1457</v>
@@ -6716,7 +6722,7 @@
         <v>1455</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>1457</v>
@@ -6736,7 +6742,7 @@
         <v>1453</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>1457</v>
@@ -6756,7 +6762,7 @@
         <v>1453</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>1457</v>
@@ -6776,7 +6782,7 @@
         <v>1453</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>1457</v>
@@ -6796,7 +6802,7 @@
         <v>1453</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>1457</v>
@@ -6816,7 +6822,7 @@
         <v>1453</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>1457</v>
@@ -6836,7 +6842,7 @@
         <v>1453</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>1457</v>
@@ -6876,7 +6882,7 @@
         <v>1453</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>1457</v>
@@ -6896,7 +6902,7 @@
         <v>1453</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>1457</v>
@@ -6936,7 +6942,7 @@
         <v>1453</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>1457</v>
@@ -6956,7 +6962,7 @@
         <v>1453</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>1457</v>
@@ -6976,7 +6982,7 @@
         <v>1453</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>1457</v>
@@ -7016,7 +7022,7 @@
         <v>1453</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>1457</v>
@@ -7036,7 +7042,7 @@
         <v>1453</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>1457</v>
@@ -7056,7 +7062,7 @@
         <v>1453</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>1457</v>
@@ -7076,7 +7082,7 @@
         <v>1453</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E98" s="5" t="s">
         <v>1458</v>
@@ -7096,7 +7102,7 @@
         <v>1453</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E99" s="5" t="s">
         <v>1458</v>
@@ -7116,7 +7122,7 @@
         <v>1453</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E100" s="5" t="s">
         <v>1458</v>
@@ -7136,7 +7142,7 @@
         <v>1453</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E101" s="5" t="s">
         <v>1458</v>
@@ -7156,7 +7162,7 @@
         <v>1453</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E102" s="5" t="s">
         <v>1458</v>
@@ -7196,7 +7202,7 @@
         <v>1453</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E104" s="5" t="s">
         <v>1458</v>
@@ -7216,7 +7222,7 @@
         <v>1453</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E105" s="5" t="s">
         <v>1458</v>
@@ -7256,7 +7262,7 @@
         <v>1453</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E107" s="5" t="s">
         <v>1458</v>
@@ -7276,7 +7282,7 @@
         <v>1453</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E108" s="5" t="s">
         <v>1458</v>
@@ -7316,7 +7322,7 @@
         <v>1453</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E110" s="5" t="s">
         <v>1458</v>
@@ -7356,7 +7362,7 @@
         <v>1453</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E112" s="5" t="s">
         <v>1458</v>
@@ -7376,7 +7382,7 @@
         <v>1453</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E113" s="5" t="s">
         <v>1458</v>
@@ -7416,7 +7422,7 @@
         <v>1453</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E115" s="5" t="s">
         <v>1458</v>
@@ -7476,7 +7482,7 @@
         <v>1455</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E118" s="5" t="s">
         <v>1458</v>
@@ -7496,7 +7502,7 @@
         <v>1453</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E119" s="5" t="s">
         <v>1458</v>
@@ -7516,7 +7522,7 @@
         <v>1453</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E120" s="5" t="s">
         <v>1458</v>
@@ -7536,7 +7542,7 @@
         <v>1453</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E121" s="5" t="s">
         <v>1458</v>
@@ -7556,7 +7562,7 @@
         <v>1453</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E122" s="5" t="s">
         <v>1458</v>
@@ -7596,7 +7602,7 @@
         <v>1453</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E124" s="5" t="s">
         <v>1458</v>
@@ -7616,7 +7622,7 @@
         <v>1453</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E125" s="5" t="s">
         <v>1458</v>
@@ -7636,7 +7642,7 @@
         <v>1453</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E126" s="5" t="s">
         <v>1458</v>
@@ -7656,7 +7662,7 @@
         <v>1455</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E127" s="5" t="s">
         <v>1458</v>
@@ -7696,7 +7702,7 @@
         <v>1453</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E129" s="5" t="s">
         <v>1458</v>
@@ -7756,7 +7762,7 @@
         <v>1453</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E132" s="5" t="s">
         <v>1458</v>
@@ -7776,7 +7782,7 @@
         <v>1453</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E133" s="5" t="s">
         <v>1458</v>
@@ -7816,7 +7822,7 @@
         <v>1453</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E135" s="5" t="s">
         <v>1458</v>
@@ -7856,7 +7862,7 @@
         <v>1453</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E137" s="5" t="s">
         <v>1458</v>
@@ -7876,7 +7882,7 @@
         <v>1453</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E138" s="5" t="s">
         <v>1458</v>
@@ -7896,7 +7902,7 @@
         <v>1453</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E139" s="5" t="s">
         <v>1458</v>
@@ -7936,7 +7942,7 @@
         <v>1453</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E141" s="5" t="s">
         <v>1458</v>
@@ -7956,7 +7962,7 @@
         <v>1453</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E142" s="5" t="s">
         <v>1458</v>
@@ -7976,7 +7982,7 @@
         <v>1453</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E143" s="1" t="s">
         <v>1459</v>
@@ -7996,7 +8002,7 @@
         <v>1453</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E144" s="5" t="s">
         <v>1458</v>
@@ -8016,7 +8022,7 @@
         <v>1453</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E145" s="5" t="s">
         <v>1458</v>
@@ -8036,7 +8042,7 @@
         <v>1453</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E146" s="5" t="s">
         <v>1458</v>
@@ -8056,7 +8062,7 @@
         <v>1453</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E147" s="5" t="s">
         <v>1458</v>
@@ -8076,7 +8082,7 @@
         <v>1453</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E148" s="5" t="s">
         <v>1460</v>
@@ -8096,7 +8102,7 @@
         <v>1453</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E149" s="5" t="s">
         <v>1458</v>
@@ -8116,7 +8122,7 @@
         <v>1453</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E150" s="5" t="s">
         <v>1458</v>
@@ -8136,7 +8142,7 @@
         <v>1453</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E151" s="5" t="s">
         <v>1458</v>
@@ -8176,7 +8182,7 @@
         <v>1453</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E153" s="5" t="s">
         <v>1458</v>
@@ -8236,7 +8242,7 @@
         <v>1453</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E156" s="5" t="s">
         <v>1458</v>
@@ -8276,7 +8282,7 @@
         <v>1453</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E158" s="5" t="s">
         <v>1458</v>
@@ -8296,7 +8302,7 @@
         <v>1453</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E159" s="5" t="s">
         <v>1458</v>
@@ -8316,7 +8322,7 @@
         <v>1453</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E160" s="5" t="s">
         <v>1458</v>
@@ -8336,7 +8342,7 @@
         <v>1453</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E161" s="5" t="s">
         <v>1458</v>
@@ -8356,7 +8362,7 @@
         <v>1453</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E162" s="5" t="s">
         <v>1458</v>
@@ -8376,7 +8382,7 @@
         <v>1453</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E163" s="5" t="s">
         <v>1458</v>
@@ -8396,7 +8402,7 @@
         <v>1453</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E164" s="5" t="s">
         <v>1458</v>
@@ -8416,7 +8422,7 @@
         <v>1453</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E165" s="5" t="s">
         <v>1458</v>
@@ -8456,7 +8462,7 @@
         <v>1453</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E167" s="5" t="s">
         <v>1458</v>
@@ -8476,7 +8482,7 @@
         <v>1453</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E168" s="5" t="s">
         <v>1458</v>
@@ -8496,7 +8502,7 @@
         <v>1453</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E169" s="5" t="s">
         <v>1458</v>
@@ -8516,7 +8522,7 @@
         <v>1453</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E170" s="5" t="s">
         <v>1458</v>
@@ -8536,7 +8542,7 @@
         <v>1453</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E171" s="5" t="s">
         <v>1458</v>
@@ -8556,7 +8562,7 @@
         <v>1453</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E172" s="5" t="s">
         <v>1458</v>
@@ -8576,7 +8582,7 @@
         <v>1453</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E173" s="5" t="s">
         <v>1458</v>
@@ -8596,7 +8602,7 @@
         <v>1453</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E174" s="5" t="s">
         <v>1458</v>
@@ -8616,7 +8622,7 @@
         <v>1453</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E175" s="5" t="s">
         <v>1458</v>
@@ -8636,7 +8642,7 @@
         <v>1453</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E176" s="5" t="s">
         <v>1458</v>
@@ -8656,7 +8662,7 @@
         <v>1453</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E177" s="5" t="s">
         <v>1458</v>
@@ -8676,7 +8682,7 @@
         <v>1453</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E178" s="5" t="s">
         <v>1458</v>
@@ -8696,7 +8702,7 @@
         <v>1453</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E179" s="1" t="s">
         <v>1459</v>
@@ -8716,7 +8722,7 @@
         <v>1453</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E180" s="1" t="s">
         <v>1459</v>
@@ -8736,7 +8742,7 @@
         <v>1453</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E181" s="5" t="s">
         <v>1458</v>
@@ -8776,7 +8782,7 @@
         <v>1453</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E183" s="5" t="s">
         <v>1458</v>
@@ -8796,7 +8802,7 @@
         <v>1453</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E184" s="5" t="s">
         <v>1458</v>
@@ -8816,7 +8822,7 @@
         <v>1453</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E185" s="5" t="s">
         <v>1458</v>
@@ -8836,7 +8842,7 @@
         <v>1453</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E186" s="5" t="s">
         <v>1458</v>
@@ -8876,7 +8882,7 @@
         <v>1453</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E188" s="5" t="s">
         <v>1458</v>
@@ -8896,7 +8902,7 @@
         <v>1455</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E189" s="5" t="s">
         <v>1458</v>
@@ -8916,7 +8922,7 @@
         <v>1453</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E190" s="5" t="s">
         <v>1458</v>
@@ -8936,7 +8942,7 @@
         <v>1453</v>
       </c>
       <c r="D191" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E191" s="5" t="s">
         <v>1458</v>
@@ -8956,7 +8962,7 @@
         <v>1453</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E192" s="5" t="s">
         <v>1458</v>
@@ -8976,7 +8982,7 @@
         <v>1453</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E193" s="5" t="s">
         <v>1458</v>
@@ -9016,7 +9022,7 @@
         <v>1453</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E195" s="5" t="s">
         <v>1458</v>
@@ -9036,7 +9042,7 @@
         <v>1453</v>
       </c>
       <c r="D196" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E196" s="5" t="s">
         <v>1458</v>
@@ -9056,7 +9062,7 @@
         <v>1453</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E197" s="5" t="s">
         <v>1458</v>
@@ -9076,7 +9082,7 @@
         <v>1453</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E198" s="1" t="s">
         <v>1459</v>
@@ -9096,7 +9102,7 @@
         <v>1453</v>
       </c>
       <c r="D199" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E199" s="5" t="s">
         <v>1458</v>
@@ -9116,7 +9122,7 @@
         <v>1453</v>
       </c>
       <c r="D200" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E200" s="5" t="s">
         <v>1458</v>
@@ -9156,7 +9162,7 @@
         <v>1453</v>
       </c>
       <c r="D202" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E202" s="1" t="s">
         <v>1459</v>
@@ -9216,7 +9222,7 @@
         <v>1453</v>
       </c>
       <c r="D205" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E205" s="5" t="s">
         <v>1458</v>
@@ -9256,7 +9262,7 @@
         <v>1453</v>
       </c>
       <c r="D207" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E207" s="5" t="s">
         <v>1458</v>
@@ -9276,7 +9282,7 @@
         <v>1453</v>
       </c>
       <c r="D208" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E208" s="5" t="s">
         <v>1458</v>
@@ -9316,7 +9322,7 @@
         <v>1453</v>
       </c>
       <c r="D210" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E210" s="8" t="s">
         <v>1461</v>
@@ -9336,7 +9342,7 @@
         <v>1453</v>
       </c>
       <c r="D211" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E211" s="5" t="s">
         <v>1458</v>
@@ -9356,7 +9362,7 @@
         <v>1453</v>
       </c>
       <c r="D212" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E212" s="5" t="s">
         <v>1458</v>
@@ -9376,7 +9382,7 @@
         <v>1453</v>
       </c>
       <c r="D213" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E213" s="5" t="s">
         <v>1458</v>
@@ -9396,7 +9402,7 @@
         <v>1455</v>
       </c>
       <c r="D214" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E214" s="5" t="s">
         <v>1458</v>
@@ -9416,7 +9422,7 @@
         <v>1453</v>
       </c>
       <c r="D215" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E215" s="5" t="s">
         <v>1458</v>
@@ -9436,7 +9442,7 @@
         <v>1453</v>
       </c>
       <c r="D216" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E216" s="5" t="s">
         <v>1458</v>
@@ -9456,7 +9462,7 @@
         <v>1453</v>
       </c>
       <c r="D217" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E217" s="5" t="s">
         <v>1458</v>
@@ -9496,7 +9502,7 @@
         <v>1453</v>
       </c>
       <c r="D219" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E219" s="8" t="s">
         <v>1461</v>
@@ -9516,7 +9522,7 @@
         <v>1453</v>
       </c>
       <c r="D220" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E220" s="5" t="s">
         <v>1458</v>
@@ -9536,7 +9542,7 @@
         <v>1453</v>
       </c>
       <c r="D221" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E221" s="5" t="s">
         <v>1458</v>
@@ -9556,7 +9562,7 @@
         <v>1453</v>
       </c>
       <c r="D222" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E222" s="5" t="s">
         <v>1458</v>
@@ -9576,7 +9582,7 @@
         <v>1453</v>
       </c>
       <c r="D223" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E223" s="5" t="s">
         <v>1458</v>
@@ -9596,7 +9602,7 @@
         <v>1453</v>
       </c>
       <c r="D224" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E224" s="5" t="s">
         <v>1458</v>
@@ -9616,7 +9622,7 @@
         <v>1453</v>
       </c>
       <c r="D225" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E225" s="5" t="s">
         <v>1458</v>
@@ -9636,7 +9642,7 @@
         <v>1453</v>
       </c>
       <c r="D226" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E226" s="8" t="s">
         <v>1461</v>
@@ -9656,7 +9662,7 @@
         <v>1453</v>
       </c>
       <c r="D227" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E227" s="5" t="s">
         <v>1458</v>
@@ -9676,7 +9682,7 @@
         <v>1453</v>
       </c>
       <c r="D228" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E228" s="8" t="s">
         <v>1461</v>
@@ -9716,7 +9722,7 @@
         <v>1453</v>
       </c>
       <c r="D230" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E230" s="8" t="s">
         <v>1461</v>
@@ -9756,7 +9762,7 @@
         <v>1453</v>
       </c>
       <c r="D232" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E232" s="8" t="s">
         <v>1461</v>
@@ -9796,7 +9802,7 @@
         <v>1453</v>
       </c>
       <c r="D234" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E234" s="5" t="s">
         <v>1458</v>
@@ -9816,7 +9822,7 @@
         <v>1453</v>
       </c>
       <c r="D235" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E235" s="5" t="s">
         <v>1458</v>
@@ -9836,7 +9842,7 @@
         <v>1455</v>
       </c>
       <c r="D236" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E236" s="8" t="s">
         <v>1461</v>
@@ -9856,7 +9862,7 @@
         <v>1453</v>
       </c>
       <c r="D237" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E237" s="8" t="s">
         <v>1461</v>
@@ -9876,7 +9882,7 @@
         <v>1453</v>
       </c>
       <c r="D238" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E238" s="1" t="s">
         <v>1459</v>
@@ -9896,7 +9902,7 @@
         <v>1453</v>
       </c>
       <c r="D239" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E239" s="8" t="s">
         <v>1461</v>
@@ -9916,7 +9922,7 @@
         <v>1453</v>
       </c>
       <c r="D240" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E240" s="8" t="s">
         <v>1461</v>
@@ -9936,7 +9942,7 @@
         <v>1453</v>
       </c>
       <c r="D241" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E241" s="5" t="s">
         <v>1458</v>
@@ -9956,7 +9962,7 @@
         <v>1453</v>
       </c>
       <c r="D242" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E242" s="8" t="s">
         <v>1461</v>
@@ -9976,7 +9982,7 @@
         <v>1453</v>
       </c>
       <c r="D243" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E243" s="8" t="s">
         <v>1461</v>
@@ -10116,7 +10122,7 @@
         <v>1453</v>
       </c>
       <c r="D250" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E250" s="8" t="s">
         <v>1461</v>
@@ -10136,7 +10142,7 @@
         <v>1453</v>
       </c>
       <c r="D251" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E251" s="8" t="s">
         <v>1461</v>
@@ -10156,7 +10162,7 @@
         <v>1453</v>
       </c>
       <c r="D252" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E252" s="8" t="s">
         <v>1461</v>
@@ -10176,7 +10182,7 @@
         <v>1453</v>
       </c>
       <c r="D253" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E253" s="8" t="s">
         <v>1461</v>
@@ -10196,7 +10202,7 @@
         <v>1453</v>
       </c>
       <c r="D254" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E254" s="8" t="s">
         <v>1461</v>
@@ -10216,7 +10222,7 @@
         <v>1453</v>
       </c>
       <c r="D255" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E255" s="8" t="s">
         <v>1461</v>
@@ -10236,7 +10242,7 @@
         <v>1453</v>
       </c>
       <c r="D256" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E256" s="8" t="s">
         <v>1461</v>
@@ -10296,7 +10302,7 @@
         <v>1453</v>
       </c>
       <c r="D259" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E259" s="8" t="s">
         <v>1461</v>
@@ -10316,7 +10322,7 @@
         <v>1453</v>
       </c>
       <c r="D260" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E260" s="8" t="s">
         <v>1461</v>
@@ -10336,7 +10342,7 @@
         <v>1453</v>
       </c>
       <c r="D261" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E261" s="8" t="s">
         <v>1461</v>
@@ -10356,7 +10362,7 @@
         <v>1453</v>
       </c>
       <c r="D262" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E262" s="8" t="s">
         <v>1461</v>
@@ -10376,7 +10382,7 @@
         <v>1453</v>
       </c>
       <c r="D263" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E263" s="1" t="s">
         <v>1459</v>
@@ -10396,7 +10402,7 @@
         <v>1453</v>
       </c>
       <c r="D264" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E264" s="1" t="s">
         <v>1459</v>
@@ -10416,7 +10422,7 @@
         <v>1453</v>
       </c>
       <c r="D265" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E265" s="1" t="s">
         <v>1459</v>
@@ -10436,7 +10442,7 @@
         <v>1453</v>
       </c>
       <c r="D266" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E266" s="1" t="s">
         <v>1459</v>
@@ -10456,7 +10462,7 @@
         <v>1453</v>
       </c>
       <c r="D267" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E267" s="1" t="s">
         <v>1459</v>
@@ -10476,7 +10482,7 @@
         <v>1453</v>
       </c>
       <c r="D268" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E268" s="1" t="s">
         <v>1459</v>
@@ -10496,7 +10502,7 @@
         <v>1453</v>
       </c>
       <c r="D269" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E269" s="1" t="s">
         <v>1459</v>
@@ -10516,7 +10522,7 @@
         <v>1453</v>
       </c>
       <c r="D270" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E270" s="1" t="s">
         <v>1459</v>
@@ -10536,7 +10542,7 @@
         <v>1453</v>
       </c>
       <c r="D271" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E271" s="1" t="s">
         <v>1459</v>
@@ -10556,7 +10562,7 @@
         <v>1453</v>
       </c>
       <c r="D272" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E272" s="1" t="s">
         <v>1459</v>
@@ -10596,7 +10602,7 @@
         <v>1453</v>
       </c>
       <c r="D274" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E274" s="1" t="s">
         <v>1459</v>
@@ -10636,7 +10642,7 @@
         <v>1453</v>
       </c>
       <c r="D276" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E276" s="1" t="s">
         <v>1459</v>
@@ -10696,7 +10702,7 @@
         <v>1453</v>
       </c>
       <c r="D279" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E279" s="1" t="s">
         <v>1459</v>
@@ -10716,7 +10722,7 @@
         <v>1453</v>
       </c>
       <c r="D280" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E280" s="1" t="s">
         <v>1459</v>
@@ -10796,7 +10802,7 @@
         <v>1453</v>
       </c>
       <c r="D284" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E284" s="1" t="s">
         <v>1459</v>
@@ -10816,7 +10822,7 @@
         <v>1453</v>
       </c>
       <c r="D285" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E285" s="8" t="s">
         <v>1461</v>
@@ -10836,7 +10842,7 @@
         <v>1453</v>
       </c>
       <c r="D286" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E286" s="1" t="s">
         <v>1459</v>
@@ -10876,7 +10882,7 @@
         <v>1453</v>
       </c>
       <c r="D288" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E288" s="1" t="s">
         <v>1459</v>
@@ -10916,7 +10922,7 @@
         <v>1453</v>
       </c>
       <c r="D290" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E290" s="1" t="s">
         <v>1459</v>
@@ -10936,7 +10942,7 @@
         <v>1453</v>
       </c>
       <c r="D291" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E291" s="1" t="s">
         <v>1459</v>
@@ -10996,7 +11002,7 @@
         <v>1453</v>
       </c>
       <c r="D294" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E294" s="1" t="s">
         <v>1459</v>
@@ -11016,7 +11022,7 @@
         <v>1453</v>
       </c>
       <c r="D295" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E295" s="1" t="s">
         <v>1459</v>
@@ -11036,7 +11042,7 @@
         <v>1453</v>
       </c>
       <c r="D296" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E296" s="1" t="s">
         <v>1459</v>
@@ -11056,7 +11062,7 @@
         <v>1453</v>
       </c>
       <c r="D297" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E297" s="1" t="s">
         <v>1459</v>
@@ -11076,7 +11082,7 @@
         <v>1453</v>
       </c>
       <c r="D298" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E298" s="1" t="s">
         <v>1459</v>
@@ -11116,7 +11122,7 @@
         <v>1453</v>
       </c>
       <c r="D300" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E300" s="1" t="s">
         <v>1459</v>
@@ -11136,7 +11142,7 @@
         <v>1453</v>
       </c>
       <c r="D301" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E301" s="1" t="s">
         <v>1459</v>
@@ -11156,7 +11162,7 @@
         <v>1453</v>
       </c>
       <c r="D302" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E302" s="1" t="s">
         <v>1459</v>
@@ -11176,7 +11182,7 @@
         <v>1453</v>
       </c>
       <c r="D303" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E303" s="1" t="s">
         <v>1459</v>
@@ -11196,7 +11202,7 @@
         <v>1453</v>
       </c>
       <c r="D304" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E304" s="1" t="s">
         <v>1459</v>
@@ -11216,7 +11222,7 @@
         <v>1453</v>
       </c>
       <c r="D305" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E305" s="1" t="s">
         <v>1459</v>
@@ -11236,7 +11242,7 @@
         <v>1453</v>
       </c>
       <c r="D306" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E306" s="1" t="s">
         <v>1459</v>
@@ -11256,7 +11262,7 @@
         <v>1453</v>
       </c>
       <c r="D307" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E307" s="1" t="s">
         <v>1459</v>
@@ -11276,7 +11282,7 @@
         <v>1453</v>
       </c>
       <c r="D308" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E308" s="1" t="s">
         <v>1459</v>
@@ -11316,7 +11322,7 @@
         <v>1453</v>
       </c>
       <c r="D310" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E310" s="1" t="s">
         <v>1459</v>
@@ -11336,7 +11342,7 @@
         <v>1453</v>
       </c>
       <c r="D311" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E311" s="1" t="s">
         <v>1459</v>
@@ -11356,7 +11362,7 @@
         <v>1453</v>
       </c>
       <c r="D312" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E312" s="1" t="s">
         <v>1459</v>
@@ -11396,7 +11402,7 @@
         <v>1453</v>
       </c>
       <c r="D314" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E314" s="1" t="s">
         <v>1459</v>
@@ -11456,7 +11462,7 @@
         <v>1453</v>
       </c>
       <c r="D317" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E317" s="1" t="s">
         <v>1459</v>
@@ -11496,7 +11502,7 @@
         <v>1453</v>
       </c>
       <c r="D319" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E319" s="1" t="s">
         <v>1459</v>
@@ -11516,7 +11522,7 @@
         <v>1453</v>
       </c>
       <c r="D320" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E320" s="1" t="s">
         <v>1459</v>
@@ -11536,7 +11542,7 @@
         <v>1455</v>
       </c>
       <c r="D321" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E321" s="1" t="s">
         <v>1459</v>
@@ -11556,7 +11562,7 @@
         <v>1453</v>
       </c>
       <c r="D322" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E322" s="1" t="s">
         <v>1459</v>
@@ -11576,7 +11582,7 @@
         <v>1453</v>
       </c>
       <c r="D323" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E323" s="1" t="s">
         <v>1459</v>
@@ -11596,7 +11602,7 @@
         <v>1453</v>
       </c>
       <c r="D324" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E324" s="1" t="s">
         <v>1459</v>
@@ -11616,7 +11622,7 @@
         <v>1453</v>
       </c>
       <c r="D325" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E325" s="1" t="s">
         <v>1459</v>
@@ -11636,7 +11642,7 @@
         <v>1453</v>
       </c>
       <c r="D326" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E326" s="1" t="s">
         <v>1459</v>
@@ -11656,7 +11662,7 @@
         <v>1453</v>
       </c>
       <c r="D327" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E327" s="1" t="s">
         <v>1459</v>
@@ -11676,7 +11682,7 @@
         <v>1453</v>
       </c>
       <c r="D328" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E328" s="1" t="s">
         <v>1459</v>
@@ -11696,7 +11702,7 @@
         <v>1453</v>
       </c>
       <c r="D329" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E329" s="1" t="s">
         <v>1459</v>
@@ -11716,7 +11722,7 @@
         <v>1453</v>
       </c>
       <c r="D330" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E330" s="1" t="s">
         <v>1459</v>
@@ -11736,7 +11742,7 @@
         <v>1453</v>
       </c>
       <c r="D331" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E331" s="1" t="s">
         <v>1459</v>
@@ -11756,7 +11762,7 @@
         <v>1453</v>
       </c>
       <c r="D332" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E332" s="1" t="s">
         <v>1459</v>
@@ -11776,7 +11782,7 @@
         <v>1453</v>
       </c>
       <c r="D333" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E333" s="1" t="s">
         <v>1459</v>
@@ -11796,7 +11802,7 @@
         <v>1453</v>
       </c>
       <c r="D334" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E334" s="1" t="s">
         <v>1462</v>
@@ -11816,7 +11822,7 @@
         <v>1453</v>
       </c>
       <c r="D335" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E335" s="1" t="s">
         <v>1462</v>
@@ -11836,7 +11842,7 @@
         <v>1453</v>
       </c>
       <c r="D336" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E336" s="1" t="s">
         <v>1459</v>
@@ -11876,7 +11882,7 @@
         <v>1453</v>
       </c>
       <c r="D338" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E338" s="1" t="s">
         <v>1459</v>
@@ -11916,7 +11922,7 @@
         <v>1453</v>
       </c>
       <c r="D340" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E340" s="1" t="s">
         <v>1459</v>
@@ -11996,7 +12002,7 @@
         <v>1453</v>
       </c>
       <c r="D344" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E344" s="1" t="s">
         <v>1459</v>
@@ -12016,7 +12022,7 @@
         <v>1453</v>
       </c>
       <c r="D345" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E345" s="1" t="s">
         <v>1459</v>
@@ -12036,7 +12042,7 @@
         <v>1453</v>
       </c>
       <c r="D346" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E346" s="1" t="s">
         <v>1459</v>
@@ -12056,7 +12062,7 @@
         <v>1453</v>
       </c>
       <c r="D347" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E347" s="1" t="s">
         <v>1459</v>
@@ -12076,7 +12082,7 @@
         <v>1453</v>
       </c>
       <c r="D348" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E348" s="1" t="s">
         <v>1459</v>
@@ -12116,7 +12122,7 @@
         <v>1453</v>
       </c>
       <c r="D350" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E350" s="1" t="s">
         <v>1459</v>
@@ -12136,7 +12142,7 @@
         <v>1453</v>
       </c>
       <c r="D351" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E351" s="1" t="s">
         <v>1459</v>
@@ -12196,7 +12202,7 @@
         <v>1453</v>
       </c>
       <c r="D354" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E354" s="1" t="s">
         <v>1459</v>
@@ -12216,7 +12222,7 @@
         <v>1453</v>
       </c>
       <c r="D355" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E355" s="1" t="s">
         <v>1459</v>
@@ -12236,7 +12242,7 @@
         <v>1453</v>
       </c>
       <c r="D356" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E356" s="1" t="s">
         <v>1459</v>
@@ -12256,7 +12262,7 @@
         <v>1453</v>
       </c>
       <c r="D357" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E357" s="1" t="s">
         <v>1459</v>
@@ -12296,7 +12302,7 @@
         <v>1453</v>
       </c>
       <c r="D359" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E359" s="1" t="s">
         <v>1459</v>
@@ -12316,7 +12322,7 @@
         <v>1453</v>
       </c>
       <c r="D360" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E360" s="1" t="s">
         <v>1459</v>
@@ -12396,7 +12402,7 @@
         <v>1453</v>
       </c>
       <c r="D364" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E364" s="1" t="s">
         <v>1459</v>
@@ -12416,7 +12422,7 @@
         <v>1453</v>
       </c>
       <c r="D365" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E365" s="1" t="s">
         <v>1459</v>
@@ -12436,7 +12442,7 @@
         <v>1453</v>
       </c>
       <c r="D366" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E366" s="1" t="s">
         <v>1459</v>
@@ -12456,7 +12462,7 @@
         <v>1453</v>
       </c>
       <c r="D367" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E367" s="1" t="s">
         <v>1459</v>
@@ -12476,7 +12482,7 @@
         <v>1453</v>
       </c>
       <c r="D368" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E368" s="1" t="s">
         <v>1459</v>
@@ -12516,7 +12522,7 @@
         <v>1453</v>
       </c>
       <c r="D370" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E370" s="1" t="s">
         <v>1459</v>
@@ -12536,7 +12542,7 @@
         <v>1453</v>
       </c>
       <c r="D371" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E371" s="1" t="s">
         <v>1459</v>
@@ -12556,7 +12562,7 @@
         <v>1453</v>
       </c>
       <c r="D372" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E372" s="1" t="s">
         <v>1462</v>
@@ -12576,7 +12582,7 @@
         <v>1453</v>
       </c>
       <c r="D373" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E373" s="1" t="s">
         <v>1462</v>
@@ -12616,7 +12622,7 @@
         <v>1453</v>
       </c>
       <c r="D375" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E375" s="1" t="s">
         <v>1462</v>
@@ -12656,7 +12662,7 @@
         <v>1453</v>
       </c>
       <c r="D377" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E377" s="1" t="s">
         <v>1462</v>
@@ -12665,7 +12671,7 @@
         <v>45725</v>
       </c>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A378" s="1" t="s">
         <v>402</v>
       </c>
@@ -12675,8 +12681,8 @@
       <c r="C378" s="1" t="s">
         <v>1453</v>
       </c>
-      <c r="D378" s="1" t="s">
-        <v>1456</v>
+      <c r="D378" s="3" t="s">
+        <v>1486</v>
       </c>
       <c r="E378" s="1" t="s">
         <v>1462</v>
@@ -12685,7 +12691,7 @@
         <v>45725</v>
       </c>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A379" s="1" t="s">
         <v>403</v>
       </c>
@@ -12695,8 +12701,8 @@
       <c r="C379" s="1" t="s">
         <v>1453</v>
       </c>
-      <c r="D379" s="1" t="s">
-        <v>1456</v>
+      <c r="D379" s="3" t="s">
+        <v>1486</v>
       </c>
       <c r="E379" s="1" t="s">
         <v>1462</v>
@@ -12715,8 +12721,8 @@
       <c r="C380" s="1" t="s">
         <v>1453</v>
       </c>
-      <c r="D380" s="1" t="s">
-        <v>1456</v>
+      <c r="D380" s="3" t="s">
+        <v>1486</v>
       </c>
       <c r="E380" s="1" t="s">
         <v>1462</v>
@@ -12735,8 +12741,8 @@
       <c r="C381" s="1" t="s">
         <v>1453</v>
       </c>
-      <c r="D381" s="1" t="s">
-        <v>1456</v>
+      <c r="D381" s="3" t="s">
+        <v>1486</v>
       </c>
       <c r="E381" s="1" t="s">
         <v>1462</v>
@@ -12795,8 +12801,8 @@
       <c r="C384" s="1" t="s">
         <v>1453</v>
       </c>
-      <c r="D384" s="1" t="s">
-        <v>1456</v>
+      <c r="D384" s="3" t="s">
+        <v>1486</v>
       </c>
       <c r="E384" s="1" t="s">
         <v>1462</v>
@@ -12835,8 +12841,8 @@
       <c r="C386" s="1" t="s">
         <v>1453</v>
       </c>
-      <c r="D386" s="1" t="s">
-        <v>1456</v>
+      <c r="D386" s="3" t="s">
+        <v>1486</v>
       </c>
       <c r="E386" s="1" t="s">
         <v>1462</v>
@@ -12855,8 +12861,8 @@
       <c r="C387" s="1" t="s">
         <v>1453</v>
       </c>
-      <c r="D387" s="1" t="s">
-        <v>1456</v>
+      <c r="D387" s="3" t="s">
+        <v>1486</v>
       </c>
       <c r="E387" s="1" t="s">
         <v>1462</v>
@@ -12895,8 +12901,8 @@
       <c r="C389" s="1" t="s">
         <v>1453</v>
       </c>
-      <c r="D389" s="1" t="s">
-        <v>1456</v>
+      <c r="D389" s="3" t="s">
+        <v>1486</v>
       </c>
       <c r="E389" s="1" t="s">
         <v>1462</v>
@@ -12935,8 +12941,8 @@
       <c r="C391" s="1" t="s">
         <v>1453</v>
       </c>
-      <c r="D391" s="1" t="s">
-        <v>1456</v>
+      <c r="D391" s="3" t="s">
+        <v>1486</v>
       </c>
       <c r="E391" s="1" t="s">
         <v>1462</v>
@@ -12955,8 +12961,8 @@
       <c r="C392" s="1" t="s">
         <v>1453</v>
       </c>
-      <c r="D392" s="1" t="s">
-        <v>1456</v>
+      <c r="D392" s="3" t="s">
+        <v>1486</v>
       </c>
       <c r="E392" s="1" t="s">
         <v>1462</v>
@@ -12975,8 +12981,8 @@
       <c r="C393" s="1" t="s">
         <v>1453</v>
       </c>
-      <c r="D393" s="1" t="s">
-        <v>1456</v>
+      <c r="D393" s="3" t="s">
+        <v>1486</v>
       </c>
       <c r="E393" s="1" t="s">
         <v>1462</v>
@@ -12995,8 +13001,8 @@
       <c r="C394" s="1" t="s">
         <v>1453</v>
       </c>
-      <c r="D394" s="1" t="s">
-        <v>1456</v>
+      <c r="D394" s="3" t="s">
+        <v>1486</v>
       </c>
       <c r="E394" s="1" t="s">
         <v>1462</v>
@@ -13035,8 +13041,8 @@
       <c r="C396" s="1" t="s">
         <v>1453</v>
       </c>
-      <c r="D396" s="1" t="s">
-        <v>1456</v>
+      <c r="D396" s="3" t="s">
+        <v>1486</v>
       </c>
       <c r="E396" s="1" t="s">
         <v>1462</v>
@@ -13055,8 +13061,8 @@
       <c r="C397" s="1" t="s">
         <v>1453</v>
       </c>
-      <c r="D397" s="1" t="s">
-        <v>1456</v>
+      <c r="D397" s="3" t="s">
+        <v>1486</v>
       </c>
       <c r="E397" s="1" t="s">
         <v>1462</v>
@@ -13095,8 +13101,8 @@
       <c r="C399" s="1" t="s">
         <v>1453</v>
       </c>
-      <c r="D399" s="1" t="s">
-        <v>1456</v>
+      <c r="D399" s="3" t="s">
+        <v>1486</v>
       </c>
       <c r="E399" s="1" t="s">
         <v>1457</v>
@@ -13115,8 +13121,8 @@
       <c r="C400" s="1" t="s">
         <v>1453</v>
       </c>
-      <c r="D400" s="1" t="s">
-        <v>1456</v>
+      <c r="D400" s="3" t="s">
+        <v>1486</v>
       </c>
       <c r="E400" s="1" t="s">
         <v>1462</v>
@@ -13135,8 +13141,8 @@
       <c r="C401" s="1" t="s">
         <v>1453</v>
       </c>
-      <c r="D401" s="1" t="s">
-        <v>1456</v>
+      <c r="D401" s="3" t="s">
+        <v>1486</v>
       </c>
       <c r="E401" s="1" t="s">
         <v>1462</v>
@@ -13155,8 +13161,8 @@
       <c r="C402" s="1" t="s">
         <v>1453</v>
       </c>
-      <c r="D402" s="1" t="s">
-        <v>1456</v>
+      <c r="D402" s="3" t="s">
+        <v>1486</v>
       </c>
       <c r="E402" s="1" t="s">
         <v>1462</v>
@@ -13235,8 +13241,8 @@
       <c r="C406" s="1" t="s">
         <v>1453</v>
       </c>
-      <c r="D406" s="1" t="s">
-        <v>1456</v>
+      <c r="D406" s="3" t="s">
+        <v>1486</v>
       </c>
       <c r="E406" s="1" t="s">
         <v>1462</v>
@@ -13255,8 +13261,8 @@
       <c r="C407" s="1" t="s">
         <v>1453</v>
       </c>
-      <c r="D407" s="1" t="s">
-        <v>1456</v>
+      <c r="D407" s="3" t="s">
+        <v>1486</v>
       </c>
       <c r="E407" s="1" t="s">
         <v>1462</v>
@@ -13275,8 +13281,8 @@
       <c r="C408" s="1" t="s">
         <v>1453</v>
       </c>
-      <c r="D408" s="1" t="s">
-        <v>1456</v>
+      <c r="D408" s="3" t="s">
+        <v>1486</v>
       </c>
       <c r="E408" s="1" t="s">
         <v>1462</v>
@@ -13295,8 +13301,8 @@
       <c r="C409" s="1" t="s">
         <v>1453</v>
       </c>
-      <c r="D409" s="1" t="s">
-        <v>1456</v>
+      <c r="D409" s="3" t="s">
+        <v>1486</v>
       </c>
       <c r="E409" s="1" t="s">
         <v>1462</v>
@@ -13315,8 +13321,8 @@
       <c r="C410" s="1" t="s">
         <v>1453</v>
       </c>
-      <c r="D410" s="1" t="s">
-        <v>1456</v>
+      <c r="D410" s="3" t="s">
+        <v>1486</v>
       </c>
       <c r="E410" s="1" t="s">
         <v>1462</v>
@@ -13335,8 +13341,8 @@
       <c r="C411" s="4" t="s">
         <v>1455</v>
       </c>
-      <c r="D411" s="1" t="s">
-        <v>1456</v>
+      <c r="D411" s="3" t="s">
+        <v>1486</v>
       </c>
       <c r="E411" s="1" t="s">
         <v>1462</v>
@@ -13356,7 +13362,7 @@
         <v>1453</v>
       </c>
       <c r="D412" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E412" s="1" t="s">
         <v>1462</v>
@@ -13396,7 +13402,7 @@
         <v>1453</v>
       </c>
       <c r="D414" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E414" s="1" t="s">
         <v>1462</v>
@@ -13416,7 +13422,7 @@
         <v>1453</v>
       </c>
       <c r="D415" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E415" s="1" t="s">
         <v>1462</v>
@@ -13436,7 +13442,7 @@
         <v>1453</v>
       </c>
       <c r="D416" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E416" s="1" t="s">
         <v>1462</v>
@@ -13456,7 +13462,7 @@
         <v>1453</v>
       </c>
       <c r="D417" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E417" s="1" t="s">
         <v>1462</v>
@@ -13575,8 +13581,8 @@
       <c r="C423" s="4" t="s">
         <v>1455</v>
       </c>
-      <c r="D423" s="1" t="s">
-        <v>1456</v>
+      <c r="D423" s="3" t="s">
+        <v>1486</v>
       </c>
       <c r="E423" s="1" t="s">
         <v>1462</v>
@@ -13596,7 +13602,7 @@
         <v>1453</v>
       </c>
       <c r="D424" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E424" s="1" t="s">
         <v>1462</v>
@@ -13636,7 +13642,7 @@
         <v>1453</v>
       </c>
       <c r="D426" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E426" s="1" t="s">
         <v>1462</v>
@@ -13676,7 +13682,7 @@
         <v>1453</v>
       </c>
       <c r="D428" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E428" s="1" t="s">
         <v>1462</v>
@@ -13696,7 +13702,7 @@
         <v>1453</v>
       </c>
       <c r="D429" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E429" s="1" t="s">
         <v>1462</v>
@@ -13736,7 +13742,7 @@
         <v>1453</v>
       </c>
       <c r="D431" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E431" s="1" t="s">
         <v>1462</v>
@@ -13756,7 +13762,7 @@
         <v>1453</v>
       </c>
       <c r="D432" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E432" s="1" t="s">
         <v>1462</v>
@@ -13776,7 +13782,7 @@
         <v>1453</v>
       </c>
       <c r="D433" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E433" s="1" t="s">
         <v>1462</v>
@@ -13816,7 +13822,7 @@
         <v>1453</v>
       </c>
       <c r="D435" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E435" s="1" t="s">
         <v>1462</v>
@@ -13876,7 +13882,7 @@
         <v>1453</v>
       </c>
       <c r="D438" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E438" s="8" t="s">
         <v>1463</v>
@@ -13896,7 +13902,7 @@
         <v>1453</v>
       </c>
       <c r="D439" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E439" s="1" t="s">
         <v>1462</v>
@@ -13916,7 +13922,7 @@
         <v>1453</v>
       </c>
       <c r="D440" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E440" s="1" t="s">
         <v>1462</v>
@@ -13936,7 +13942,7 @@
         <v>1453</v>
       </c>
       <c r="D441" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E441" s="1" t="s">
         <v>1462</v>
@@ -13956,7 +13962,7 @@
         <v>1453</v>
       </c>
       <c r="D442" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E442" s="1" t="s">
         <v>1462</v>
@@ -13976,7 +13982,7 @@
         <v>1453</v>
       </c>
       <c r="D443" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E443" s="1" t="s">
         <v>1462</v>
@@ -13996,7 +14002,7 @@
         <v>1453</v>
       </c>
       <c r="D444" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E444" s="1" t="s">
         <v>1463</v>
@@ -14016,7 +14022,7 @@
         <v>1453</v>
       </c>
       <c r="D445" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E445" s="1" t="s">
         <v>1462</v>
@@ -14036,7 +14042,7 @@
         <v>1453</v>
       </c>
       <c r="D446" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E446" s="1" t="s">
         <v>1462</v>
@@ -14056,7 +14062,7 @@
         <v>1453</v>
       </c>
       <c r="D447" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E447" s="1" t="s">
         <v>1462</v>
@@ -14076,7 +14082,7 @@
         <v>1453</v>
       </c>
       <c r="D448" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E448" s="1" t="s">
         <v>1462</v>
@@ -14096,7 +14102,7 @@
         <v>1453</v>
       </c>
       <c r="D449" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E449" s="1" t="s">
         <v>1462</v>
@@ -14116,7 +14122,7 @@
         <v>1453</v>
       </c>
       <c r="D450" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E450" s="1" t="s">
         <v>1462</v>
@@ -14136,7 +14142,7 @@
         <v>1453</v>
       </c>
       <c r="D451" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E451" s="1" t="s">
         <v>1462</v>
@@ -14156,7 +14162,7 @@
         <v>1453</v>
       </c>
       <c r="D452" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E452" s="1" t="s">
         <v>1462</v>
@@ -14196,7 +14202,7 @@
         <v>1453</v>
       </c>
       <c r="D454" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E454" s="1" t="s">
         <v>1462</v>
@@ -14236,7 +14242,7 @@
         <v>1453</v>
       </c>
       <c r="D456" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E456" s="1" t="s">
         <v>1462</v>
@@ -14256,7 +14262,7 @@
         <v>1453</v>
       </c>
       <c r="D457" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E457" s="1" t="s">
         <v>1462</v>
@@ -14316,7 +14322,7 @@
         <v>1453</v>
       </c>
       <c r="D460" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E460" s="1" t="s">
         <v>1462</v>
@@ -14336,7 +14342,7 @@
         <v>1453</v>
       </c>
       <c r="D461" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E461" s="1" t="s">
         <v>1462</v>
@@ -14376,7 +14382,7 @@
         <v>1453</v>
       </c>
       <c r="D463" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E463" s="1" t="s">
         <v>1464</v>
@@ -14396,7 +14402,7 @@
         <v>1453</v>
       </c>
       <c r="D464" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E464" s="1" t="s">
         <v>1462</v>
@@ -14436,7 +14442,7 @@
         <v>1453</v>
       </c>
       <c r="D466" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E466" s="1" t="s">
         <v>1462</v>
@@ -14476,7 +14482,7 @@
         <v>1453</v>
       </c>
       <c r="D468" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E468" s="1" t="s">
         <v>1462</v>
@@ -14496,7 +14502,7 @@
         <v>1453</v>
       </c>
       <c r="D469" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E469" s="1" t="s">
         <v>1462</v>
@@ -14516,7 +14522,7 @@
         <v>1453</v>
       </c>
       <c r="D470" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E470" s="1" t="s">
         <v>1462</v>
@@ -14536,7 +14542,7 @@
         <v>1453</v>
       </c>
       <c r="D471" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E471" s="1" t="s">
         <v>1462</v>
@@ -14636,7 +14642,7 @@
         <v>1455</v>
       </c>
       <c r="D476" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E476" s="2" t="s">
         <v>1460</v>
@@ -14656,7 +14662,7 @@
         <v>1453</v>
       </c>
       <c r="D477" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E477" s="1" t="s">
         <v>1462</v>
@@ -14696,7 +14702,7 @@
         <v>1453</v>
       </c>
       <c r="D479" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E479" s="1" t="s">
         <v>1462</v>
@@ -14716,7 +14722,7 @@
         <v>1453</v>
       </c>
       <c r="D480" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E480" s="1" t="s">
         <v>1462</v>
@@ -14736,7 +14742,7 @@
         <v>1453</v>
       </c>
       <c r="D481" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E481" s="1" t="s">
         <v>1462</v>
@@ -14756,7 +14762,7 @@
         <v>1453</v>
       </c>
       <c r="D482" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E482" s="1" t="s">
         <v>1462</v>
@@ -14776,7 +14782,7 @@
         <v>1453</v>
       </c>
       <c r="D483" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E483" s="1" t="s">
         <v>1462</v>
@@ -14796,7 +14802,7 @@
         <v>1453</v>
       </c>
       <c r="D484" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E484" s="1" t="s">
         <v>1462</v>
@@ -14816,7 +14822,7 @@
         <v>1453</v>
       </c>
       <c r="D485" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E485" s="1" t="s">
         <v>1462</v>
@@ -14836,7 +14842,7 @@
         <v>1453</v>
       </c>
       <c r="D486" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E486" s="5" t="s">
         <v>1464</v>
@@ -14876,7 +14882,7 @@
         <v>1453</v>
       </c>
       <c r="D488" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E488" s="5" t="s">
         <v>1464</v>
@@ -14896,7 +14902,7 @@
         <v>1453</v>
       </c>
       <c r="D489" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E489" s="5" t="s">
         <v>1464</v>
@@ -14936,7 +14942,7 @@
         <v>1453</v>
       </c>
       <c r="D491" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E491" s="5" t="s">
         <v>1464</v>
@@ -14976,7 +14982,7 @@
         <v>1453</v>
       </c>
       <c r="D493" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E493" s="5" t="s">
         <v>1464</v>
@@ -14996,7 +15002,7 @@
         <v>1453</v>
       </c>
       <c r="D494" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E494" s="5" t="s">
         <v>1464</v>
@@ -15056,7 +15062,7 @@
         <v>1453</v>
       </c>
       <c r="D497" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E497" s="5" t="s">
         <v>1464</v>
@@ -15076,7 +15082,7 @@
         <v>1453</v>
       </c>
       <c r="D498" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E498" s="5" t="s">
         <v>1464</v>
@@ -15096,7 +15102,7 @@
         <v>1453</v>
       </c>
       <c r="D499" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E499" s="5" t="s">
         <v>1464</v>
@@ -15156,7 +15162,7 @@
         <v>1453</v>
       </c>
       <c r="D502" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E502" s="5" t="s">
         <v>1464</v>
@@ -15176,7 +15182,7 @@
         <v>1455</v>
       </c>
       <c r="D503" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E503" s="5" t="s">
         <v>1464</v>
@@ -15196,7 +15202,7 @@
         <v>1455</v>
       </c>
       <c r="D504" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E504" s="5" t="s">
         <v>1464</v>
@@ -15215,7 +15221,9 @@
       <c r="C505" s="1" t="s">
         <v>1453</v>
       </c>
-      <c r="D505" s="3"/>
+      <c r="D505" s="3" t="s">
+        <v>1486</v>
+      </c>
       <c r="E505" s="5" t="s">
         <v>1464</v>
       </c>
@@ -15274,7 +15282,7 @@
         <v>1453</v>
       </c>
       <c r="D508" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E508" s="5" t="s">
         <v>1464</v>
@@ -15334,7 +15342,7 @@
         <v>1453</v>
       </c>
       <c r="D511" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E511" s="5" t="s">
         <v>1464</v>
@@ -15354,7 +15362,7 @@
         <v>1453</v>
       </c>
       <c r="D512" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E512" s="5" t="s">
         <v>1464</v>
@@ -15374,7 +15382,7 @@
         <v>1453</v>
       </c>
       <c r="D513" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E513" s="5" t="s">
         <v>1464</v>
@@ -15394,7 +15402,7 @@
         <v>1453</v>
       </c>
       <c r="D514" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E514" s="5" t="s">
         <v>1464</v>
@@ -15434,7 +15442,7 @@
         <v>1453</v>
       </c>
       <c r="D516" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E516" s="5" t="s">
         <v>1464</v>
@@ -15474,7 +15482,7 @@
         <v>1453</v>
       </c>
       <c r="D518" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E518" s="5" t="s">
         <v>1464</v>
@@ -15494,7 +15502,7 @@
         <v>1453</v>
       </c>
       <c r="D519" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E519" s="5" t="s">
         <v>1464</v>
@@ -15534,7 +15542,7 @@
         <v>1453</v>
       </c>
       <c r="D521" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E521" s="5" t="s">
         <v>1464</v>
@@ -15554,7 +15562,7 @@
         <v>1453</v>
       </c>
       <c r="D522" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E522" s="5" t="s">
         <v>1464</v>
@@ -15574,7 +15582,7 @@
         <v>1453</v>
       </c>
       <c r="D523" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E523" s="5" t="s">
         <v>1464</v>
@@ -15594,7 +15602,7 @@
         <v>1453</v>
       </c>
       <c r="D524" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E524" s="5" t="s">
         <v>1464</v>
@@ -15654,7 +15662,7 @@
         <v>1453</v>
       </c>
       <c r="D527" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E527" s="5" t="s">
         <v>1464</v>
@@ -15674,7 +15682,7 @@
         <v>1453</v>
       </c>
       <c r="D528" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E528" s="5" t="s">
         <v>1464</v>
@@ -15694,7 +15702,7 @@
         <v>1453</v>
       </c>
       <c r="D529" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E529" s="5" t="s">
         <v>1464</v>
@@ -15714,7 +15722,7 @@
         <v>1453</v>
       </c>
       <c r="D530" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E530" s="5" t="s">
         <v>1464</v>
@@ -15754,7 +15762,7 @@
         <v>1453</v>
       </c>
       <c r="D532" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E532" s="5" t="s">
         <v>1464</v>
@@ -15774,7 +15782,7 @@
         <v>1453</v>
       </c>
       <c r="D533" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E533" s="5" t="s">
         <v>1464</v>
@@ -15814,7 +15822,7 @@
         <v>1453</v>
       </c>
       <c r="D535" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E535" s="5" t="s">
         <v>1464</v>
@@ -15834,7 +15842,7 @@
         <v>1453</v>
       </c>
       <c r="D536" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E536" s="5" t="s">
         <v>1464</v>
@@ -15854,7 +15862,7 @@
         <v>1453</v>
       </c>
       <c r="D537" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E537" s="5" t="s">
         <v>1464</v>
@@ -15874,7 +15882,7 @@
         <v>1453</v>
       </c>
       <c r="D538" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E538" s="5" t="s">
         <v>1464</v>
@@ -15894,7 +15902,7 @@
         <v>1453</v>
       </c>
       <c r="D539" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E539" s="5" t="s">
         <v>1464</v>
@@ -15914,7 +15922,7 @@
         <v>1453</v>
       </c>
       <c r="D540" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E540" s="5" t="s">
         <v>1464</v>
@@ -15934,7 +15942,7 @@
         <v>1453</v>
       </c>
       <c r="D541" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E541" s="5" t="s">
         <v>1464</v>
@@ -15954,7 +15962,7 @@
         <v>1453</v>
       </c>
       <c r="D542" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E542" s="5" t="s">
         <v>1464</v>
@@ -15994,7 +16002,7 @@
         <v>1453</v>
       </c>
       <c r="D544" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E544" s="5" t="s">
         <v>1464</v>
@@ -16014,7 +16022,7 @@
         <v>1453</v>
       </c>
       <c r="D545" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E545" s="5" t="s">
         <v>1464</v>
@@ -16034,7 +16042,7 @@
         <v>1453</v>
       </c>
       <c r="D546" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E546" s="5" t="s">
         <v>1464</v>
@@ -16054,7 +16062,7 @@
         <v>1453</v>
       </c>
       <c r="D547" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E547" s="5" t="s">
         <v>1464</v>
@@ -16094,7 +16102,7 @@
         <v>1453</v>
       </c>
       <c r="D549" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E549" s="5" t="s">
         <v>1464</v>
@@ -16154,7 +16162,7 @@
         <v>1453</v>
       </c>
       <c r="D552" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E552" s="5" t="s">
         <v>1464</v>
@@ -16194,7 +16202,7 @@
         <v>1453</v>
       </c>
       <c r="D554" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E554" s="5" t="s">
         <v>1464</v>
@@ -16214,7 +16222,7 @@
         <v>1453</v>
       </c>
       <c r="D555" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E555" s="5" t="s">
         <v>1464</v>
@@ -16254,7 +16262,7 @@
         <v>1453</v>
       </c>
       <c r="D557" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E557" s="5" t="s">
         <v>1464</v>
@@ -16294,7 +16302,7 @@
         <v>1453</v>
       </c>
       <c r="D559" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E559" s="5" t="s">
         <v>1464</v>
@@ -16314,7 +16322,7 @@
         <v>1453</v>
       </c>
       <c r="D560" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E560" s="5" t="s">
         <v>1464</v>
@@ -16334,7 +16342,7 @@
         <v>1453</v>
       </c>
       <c r="D561" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E561" s="5" t="s">
         <v>1464</v>
@@ -16374,7 +16382,7 @@
         <v>1453</v>
       </c>
       <c r="D563" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E563" s="5" t="s">
         <v>1464</v>
@@ -16394,7 +16402,7 @@
         <v>1453</v>
       </c>
       <c r="D564" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E564" s="5" t="s">
         <v>1464</v>
@@ -16414,7 +16422,7 @@
         <v>1453</v>
       </c>
       <c r="D565" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E565" s="5" t="s">
         <v>1464</v>
@@ -16454,7 +16462,7 @@
         <v>1453</v>
       </c>
       <c r="D567" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E567" s="5" t="s">
         <v>1464</v>
@@ -16494,7 +16502,7 @@
         <v>1453</v>
       </c>
       <c r="D569" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E569" s="5" t="s">
         <v>1464</v>
@@ -16514,7 +16522,7 @@
         <v>1453</v>
       </c>
       <c r="D570" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E570" s="5" t="s">
         <v>1464</v>
@@ -16534,7 +16542,7 @@
         <v>1453</v>
       </c>
       <c r="D571" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E571" s="5" t="s">
         <v>1464</v>
@@ -16554,7 +16562,7 @@
         <v>1453</v>
       </c>
       <c r="D572" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E572" s="5" t="s">
         <v>1464</v>
@@ -16574,7 +16582,7 @@
         <v>1453</v>
       </c>
       <c r="D573" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E573" s="5" t="s">
         <v>1464</v>
@@ -16594,7 +16602,7 @@
         <v>1453</v>
       </c>
       <c r="D574" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E574" s="5" t="s">
         <v>1464</v>
@@ -16614,7 +16622,7 @@
         <v>1453</v>
       </c>
       <c r="D575" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E575" s="5" t="s">
         <v>1464</v>
@@ -16634,7 +16642,7 @@
         <v>1453</v>
       </c>
       <c r="D576" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E576" s="5" t="s">
         <v>1464</v>
@@ -16694,7 +16702,7 @@
         <v>1453</v>
       </c>
       <c r="D579" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E579" s="5" t="s">
         <v>1464</v>
@@ -16714,7 +16722,7 @@
         <v>1453</v>
       </c>
       <c r="D580" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E580" s="5" t="s">
         <v>1464</v>
@@ -16734,7 +16742,7 @@
         <v>1453</v>
       </c>
       <c r="D581" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E581" s="5" t="s">
         <v>1464</v>
@@ -16754,7 +16762,7 @@
         <v>1453</v>
       </c>
       <c r="D582" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E582" s="5" t="s">
         <v>1464</v>
@@ -16774,7 +16782,7 @@
         <v>1453</v>
       </c>
       <c r="D583" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E583" s="5" t="s">
         <v>1464</v>
@@ -16794,7 +16802,7 @@
         <v>1453</v>
       </c>
       <c r="D584" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E584" s="5" t="s">
         <v>1464</v>
@@ -16814,7 +16822,7 @@
         <v>1453</v>
       </c>
       <c r="D585" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E585" s="5" t="s">
         <v>1464</v>
@@ -16834,7 +16842,7 @@
         <v>1453</v>
       </c>
       <c r="D586" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E586" s="5" t="s">
         <v>1464</v>
@@ -16874,7 +16882,7 @@
         <v>1453</v>
       </c>
       <c r="D588" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E588" s="5" t="s">
         <v>1464</v>
@@ -16894,7 +16902,7 @@
         <v>1453</v>
       </c>
       <c r="D589" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E589" s="5" t="s">
         <v>1464</v>
@@ -16914,7 +16922,7 @@
         <v>1453</v>
       </c>
       <c r="D590" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E590" s="5" t="s">
         <v>1464</v>
@@ -16934,7 +16942,7 @@
         <v>1453</v>
       </c>
       <c r="D591" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E591" s="5" t="s">
         <v>1464</v>
@@ -16974,7 +16982,7 @@
         <v>1455</v>
       </c>
       <c r="D593" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E593" s="5" t="s">
         <v>1464</v>
@@ -16994,7 +17002,7 @@
         <v>1453</v>
       </c>
       <c r="D594" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E594" s="8" t="s">
         <v>1463</v>
@@ -17034,7 +17042,7 @@
         <v>1453</v>
       </c>
       <c r="D596" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E596" s="8" t="s">
         <v>1463</v>
@@ -17074,7 +17082,7 @@
         <v>1453</v>
       </c>
       <c r="D598" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E598" s="8" t="s">
         <v>1463</v>
@@ -17094,7 +17102,7 @@
         <v>1453</v>
       </c>
       <c r="D599" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E599" s="8" t="s">
         <v>1463</v>
@@ -17114,7 +17122,7 @@
         <v>1453</v>
       </c>
       <c r="D600" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E600" s="8" t="s">
         <v>1463</v>
@@ -17134,7 +17142,7 @@
         <v>1453</v>
       </c>
       <c r="D601" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E601" s="8" t="s">
         <v>1463</v>
@@ -17154,7 +17162,7 @@
         <v>1453</v>
       </c>
       <c r="D602" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E602" s="8" t="s">
         <v>1463</v>
@@ -17194,7 +17202,7 @@
         <v>1453</v>
       </c>
       <c r="D604" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E604" s="8" t="s">
         <v>1463</v>
@@ -17214,7 +17222,7 @@
         <v>1453</v>
       </c>
       <c r="D605" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E605" s="8" t="s">
         <v>1463</v>
@@ -17254,7 +17262,7 @@
         <v>1453</v>
       </c>
       <c r="D607" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E607" s="8" t="s">
         <v>1463</v>
@@ -17274,7 +17282,7 @@
         <v>1453</v>
       </c>
       <c r="D608" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E608" s="8" t="s">
         <v>1463</v>
@@ -17294,7 +17302,7 @@
         <v>1453</v>
       </c>
       <c r="D609" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E609" s="8" t="s">
         <v>1463</v>
@@ -17314,7 +17322,7 @@
         <v>1453</v>
       </c>
       <c r="D610" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E610" s="8" t="s">
         <v>1463</v>
@@ -17334,7 +17342,7 @@
         <v>1453</v>
       </c>
       <c r="D611" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E611" s="8" t="s">
         <v>1463</v>
@@ -17354,7 +17362,7 @@
         <v>1453</v>
       </c>
       <c r="D612" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E612" s="8" t="s">
         <v>1463</v>
@@ -17394,7 +17402,7 @@
         <v>1453</v>
       </c>
       <c r="D614" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E614" s="8" t="s">
         <v>1463</v>
@@ -17413,8 +17421,8 @@
       <c r="C615" s="1" t="s">
         <v>1453</v>
       </c>
-      <c r="D615" s="3">
-        <v>45755</v>
+      <c r="D615" s="3" t="s">
+        <v>1486</v>
       </c>
       <c r="E615" s="8" t="s">
         <v>1463</v>
@@ -17434,7 +17442,7 @@
         <v>1453</v>
       </c>
       <c r="D616" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E616" s="8" t="s">
         <v>1463</v>
@@ -17454,7 +17462,7 @@
         <v>1453</v>
       </c>
       <c r="D617" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E617" s="1" t="s">
         <v>1457</v>
@@ -17474,7 +17482,7 @@
         <v>1453</v>
       </c>
       <c r="D618" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E618" s="8" t="s">
         <v>1463</v>
@@ -17514,7 +17522,7 @@
         <v>1453</v>
       </c>
       <c r="D620" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E620" s="8" t="s">
         <v>1463</v>
@@ -17554,7 +17562,7 @@
         <v>1453</v>
       </c>
       <c r="D622" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E622" s="8" t="s">
         <v>1463</v>
@@ -17574,7 +17582,7 @@
         <v>1453</v>
       </c>
       <c r="D623" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E623" s="8" t="s">
         <v>1463</v>
@@ -17594,7 +17602,7 @@
         <v>1453</v>
       </c>
       <c r="D624" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E624" s="8" t="s">
         <v>1463</v>
@@ -17614,7 +17622,7 @@
         <v>1453</v>
       </c>
       <c r="D625" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E625" s="8" t="s">
         <v>1463</v>
@@ -17634,7 +17642,7 @@
         <v>1453</v>
       </c>
       <c r="D626" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E626" s="8" t="s">
         <v>1463</v>
@@ -17654,7 +17662,7 @@
         <v>1453</v>
       </c>
       <c r="D627" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E627" s="8" t="s">
         <v>1463</v>
@@ -17674,7 +17682,7 @@
         <v>1453</v>
       </c>
       <c r="D628" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E628" s="8" t="s">
         <v>1463</v>
@@ -17694,7 +17702,7 @@
         <v>1453</v>
       </c>
       <c r="D629" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E629" s="8" t="s">
         <v>1463</v>
@@ -17714,7 +17722,7 @@
         <v>1453</v>
       </c>
       <c r="D630" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E630" s="8" t="s">
         <v>1463</v>
@@ -17754,7 +17762,7 @@
         <v>1453</v>
       </c>
       <c r="D632" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E632" s="8" t="s">
         <v>1463</v>
@@ -17774,7 +17782,7 @@
         <v>1453</v>
       </c>
       <c r="D633" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E633" s="8" t="s">
         <v>1463</v>
@@ -17794,7 +17802,7 @@
         <v>1453</v>
       </c>
       <c r="D634" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E634" s="8" t="s">
         <v>1463</v>
@@ -17814,7 +17822,7 @@
         <v>1453</v>
       </c>
       <c r="D635" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E635" s="8" t="s">
         <v>1463</v>
@@ -17854,7 +17862,7 @@
         <v>1453</v>
       </c>
       <c r="D637" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E637" s="8" t="s">
         <v>1463</v>
@@ -17874,7 +17882,7 @@
         <v>1453</v>
       </c>
       <c r="D638" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E638" s="8" t="s">
         <v>1463</v>
@@ -17914,7 +17922,7 @@
         <v>1453</v>
       </c>
       <c r="D640" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E640" s="8" t="s">
         <v>1463</v>
@@ -17934,7 +17942,7 @@
         <v>1453</v>
       </c>
       <c r="D641" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E641" s="8" t="s">
         <v>1463</v>
@@ -17954,7 +17962,7 @@
         <v>1453</v>
       </c>
       <c r="D642" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E642" s="8" t="s">
         <v>1463</v>
@@ -17974,7 +17982,7 @@
         <v>1453</v>
       </c>
       <c r="D643" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E643" s="8" t="s">
         <v>1463</v>
@@ -18014,7 +18022,7 @@
         <v>1453</v>
       </c>
       <c r="D645" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E645" s="8" t="s">
         <v>1463</v>
@@ -18034,7 +18042,7 @@
         <v>1453</v>
       </c>
       <c r="D646" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E646" s="8" t="s">
         <v>1463</v>
@@ -18114,7 +18122,7 @@
         <v>1453</v>
       </c>
       <c r="D650" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E650" s="8" t="s">
         <v>1463</v>
@@ -18134,7 +18142,7 @@
         <v>1453</v>
       </c>
       <c r="D651" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E651" s="8" t="s">
         <v>1463</v>
@@ -18154,7 +18162,7 @@
         <v>1453</v>
       </c>
       <c r="D652" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E652" s="8" t="s">
         <v>1463</v>
@@ -18274,7 +18282,7 @@
         <v>1453</v>
       </c>
       <c r="D658" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E658" s="1" t="s">
         <v>1465</v>
@@ -18314,7 +18322,7 @@
         <v>1453</v>
       </c>
       <c r="D660" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E660" s="8" t="s">
         <v>1463</v>
@@ -18334,7 +18342,7 @@
         <v>1453</v>
       </c>
       <c r="D661" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E661" s="1" t="s">
         <v>1465</v>
@@ -18354,7 +18362,7 @@
         <v>1453</v>
       </c>
       <c r="D662" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E662" s="8" t="s">
         <v>1463</v>
@@ -18374,7 +18382,7 @@
         <v>1453</v>
       </c>
       <c r="D663" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E663" s="8" t="s">
         <v>1463</v>
@@ -18394,7 +18402,7 @@
         <v>1453</v>
       </c>
       <c r="D664" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E664" s="8" t="s">
         <v>1463</v>
@@ -18434,7 +18442,7 @@
         <v>1453</v>
       </c>
       <c r="D666" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E666" s="1" t="s">
         <v>1465</v>
@@ -18454,7 +18462,7 @@
         <v>1453</v>
       </c>
       <c r="D667" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E667" s="1" t="s">
         <v>1465</v>
@@ -18474,7 +18482,7 @@
         <v>1453</v>
       </c>
       <c r="D668" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E668" s="1" t="s">
         <v>1465</v>
@@ -18514,7 +18522,7 @@
         <v>1453</v>
       </c>
       <c r="D670" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E670" s="1" t="s">
         <v>1465</v>
@@ -18534,7 +18542,7 @@
         <v>1453</v>
       </c>
       <c r="D671" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E671" s="1" t="s">
         <v>1465</v>
@@ -18554,7 +18562,7 @@
         <v>1453</v>
       </c>
       <c r="D672" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E672" s="1" t="s">
         <v>1465</v>
@@ -18574,7 +18582,7 @@
         <v>1453</v>
       </c>
       <c r="D673" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E673" s="1" t="s">
         <v>1465</v>
@@ -18594,7 +18602,7 @@
         <v>1453</v>
       </c>
       <c r="D674" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E674" s="1" t="s">
         <v>1465</v>
@@ -18614,7 +18622,7 @@
         <v>1453</v>
       </c>
       <c r="D675" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E675" s="1" t="s">
         <v>1465</v>
@@ -18634,7 +18642,7 @@
         <v>1453</v>
       </c>
       <c r="D676" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E676" s="1" t="s">
         <v>1465</v>
@@ -18674,7 +18682,7 @@
         <v>1453</v>
       </c>
       <c r="D678" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E678" s="1" t="s">
         <v>1465</v>
@@ -18694,7 +18702,7 @@
         <v>1453</v>
       </c>
       <c r="D679" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E679" s="1" t="s">
         <v>1465</v>
@@ -18714,7 +18722,7 @@
         <v>1453</v>
       </c>
       <c r="D680" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E680" s="1" t="s">
         <v>1465</v>
@@ -18734,7 +18742,7 @@
         <v>1455</v>
       </c>
       <c r="D681" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E681" s="1" t="s">
         <v>1465</v>
@@ -18774,7 +18782,7 @@
         <v>1453</v>
       </c>
       <c r="D683" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E683" s="1" t="s">
         <v>1465</v>
@@ -18794,7 +18802,7 @@
         <v>1453</v>
       </c>
       <c r="D684" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E684" s="1" t="s">
         <v>1465</v>
@@ -18814,7 +18822,7 @@
         <v>1453</v>
       </c>
       <c r="D685" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E685" s="1" t="s">
         <v>1465</v>
@@ -18854,7 +18862,7 @@
         <v>1453</v>
       </c>
       <c r="D687" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E687" s="1" t="s">
         <v>1465</v>
@@ -18894,7 +18902,7 @@
         <v>1453</v>
       </c>
       <c r="D689" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E689" s="1" t="s">
         <v>1465</v>
@@ -18934,7 +18942,7 @@
         <v>1453</v>
       </c>
       <c r="D691" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E691" s="1" t="s">
         <v>1465</v>
@@ -18974,7 +18982,7 @@
         <v>1453</v>
       </c>
       <c r="D693" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E693" s="1" t="s">
         <v>1465</v>
@@ -18994,7 +19002,7 @@
         <v>1453</v>
       </c>
       <c r="D694" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E694" s="1" t="s">
         <v>1465</v>
@@ -19014,7 +19022,7 @@
         <v>1453</v>
       </c>
       <c r="D695" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E695" s="1" t="s">
         <v>1465</v>
@@ -19054,7 +19062,7 @@
         <v>1453</v>
       </c>
       <c r="D697" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E697" s="1" t="s">
         <v>1465</v>
@@ -19074,7 +19082,7 @@
         <v>1453</v>
       </c>
       <c r="D698" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E698" s="1" t="s">
         <v>1465</v>
@@ -19134,7 +19142,7 @@
         <v>1453</v>
       </c>
       <c r="D701" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E701" s="1" t="s">
         <v>1465</v>
@@ -19154,7 +19162,7 @@
         <v>1453</v>
       </c>
       <c r="D702" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E702" s="1" t="s">
         <v>1465</v>
@@ -19214,7 +19222,7 @@
         <v>1453</v>
       </c>
       <c r="D705" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E705" s="1" t="s">
         <v>1465</v>
@@ -19234,7 +19242,7 @@
         <v>1453</v>
       </c>
       <c r="D706" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E706" s="1" t="s">
         <v>1465</v>
@@ -19254,7 +19262,7 @@
         <v>1453</v>
       </c>
       <c r="D707" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E707" s="1" t="s">
         <v>1465</v>
@@ -19274,7 +19282,7 @@
         <v>1453</v>
       </c>
       <c r="D708" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E708" s="1" t="s">
         <v>1465</v>
@@ -19294,7 +19302,7 @@
         <v>1453</v>
       </c>
       <c r="D709" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E709" s="1" t="s">
         <v>1465</v>
@@ -19334,7 +19342,7 @@
         <v>1453</v>
       </c>
       <c r="D711" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E711" s="1" t="s">
         <v>1465</v>
@@ -19354,7 +19362,7 @@
         <v>1453</v>
       </c>
       <c r="D712" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E712" s="1" t="s">
         <v>1465</v>
@@ -19394,7 +19402,7 @@
         <v>1453</v>
       </c>
       <c r="D714" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E714" s="1" t="s">
         <v>1465</v>
@@ -19414,7 +19422,7 @@
         <v>1453</v>
       </c>
       <c r="D715" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E715" s="1" t="s">
         <v>1465</v>
@@ -19474,7 +19482,7 @@
         <v>1453</v>
       </c>
       <c r="D718" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E718" s="1" t="s">
         <v>1465</v>
@@ -19534,7 +19542,7 @@
         <v>1453</v>
       </c>
       <c r="D721" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E721" s="1" t="s">
         <v>1465</v>
@@ -19554,7 +19562,7 @@
         <v>1453</v>
       </c>
       <c r="D722" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E722" s="1" t="s">
         <v>1465</v>
@@ -19594,7 +19602,7 @@
         <v>1453</v>
       </c>
       <c r="D724" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E724" s="1" t="s">
         <v>1465</v>
@@ -19614,7 +19622,7 @@
         <v>1453</v>
       </c>
       <c r="D725" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E725" s="1" t="s">
         <v>1465</v>
@@ -19634,7 +19642,7 @@
         <v>1453</v>
       </c>
       <c r="D726" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E726" s="1" t="s">
         <v>1465</v>
@@ -19674,7 +19682,7 @@
         <v>1453</v>
       </c>
       <c r="D728" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E728" s="1" t="s">
         <v>1465</v>
@@ -19694,7 +19702,7 @@
         <v>1453</v>
       </c>
       <c r="D729" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E729" s="1" t="s">
         <v>1465</v>
@@ -19714,7 +19722,7 @@
         <v>1453</v>
       </c>
       <c r="D730" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E730" s="1" t="s">
         <v>1465</v>
@@ -19734,7 +19742,7 @@
         <v>1455</v>
       </c>
       <c r="D731" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E731" s="1" t="s">
         <v>1465</v>
@@ -19754,7 +19762,7 @@
         <v>1453</v>
       </c>
       <c r="D732" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E732" s="1" t="s">
         <v>1465</v>
@@ -19794,7 +19802,7 @@
         <v>1453</v>
       </c>
       <c r="D734" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E734" s="1" t="s">
         <v>1465</v>
@@ -19814,7 +19822,7 @@
         <v>1453</v>
       </c>
       <c r="D735" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E735" s="1" t="s">
         <v>1465</v>
@@ -19834,7 +19842,7 @@
         <v>1453</v>
       </c>
       <c r="D736" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E736" s="1" t="s">
         <v>1465</v>
@@ -19874,7 +19882,7 @@
         <v>1453</v>
       </c>
       <c r="D738" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E738" s="1" t="s">
         <v>1465</v>
@@ -19894,7 +19902,7 @@
         <v>1453</v>
       </c>
       <c r="D739" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E739" s="1" t="s">
         <v>1465</v>
@@ -19914,7 +19922,7 @@
         <v>1453</v>
       </c>
       <c r="D740" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E740" s="1" t="s">
         <v>1465</v>
@@ -19954,7 +19962,7 @@
         <v>1453</v>
       </c>
       <c r="D742" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E742" s="1" t="s">
         <v>1465</v>
@@ -19994,7 +20002,7 @@
         <v>1455</v>
       </c>
       <c r="D744" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E744" s="1" t="s">
         <v>1465</v>
@@ -20014,7 +20022,7 @@
         <v>1453</v>
       </c>
       <c r="D745" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E745" s="1" t="s">
         <v>1465</v>
@@ -20034,7 +20042,7 @@
         <v>1453</v>
       </c>
       <c r="D746" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E746" s="1" t="s">
         <v>1465</v>
@@ -20054,7 +20062,7 @@
         <v>1453</v>
       </c>
       <c r="D747" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E747" s="1" t="s">
         <v>1465</v>
@@ -20074,7 +20082,7 @@
         <v>1453</v>
       </c>
       <c r="D748" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E748" s="1" t="s">
         <v>1465</v>
@@ -20094,7 +20102,7 @@
         <v>1453</v>
       </c>
       <c r="D749" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E749" s="1" t="s">
         <v>1465</v>
@@ -20114,7 +20122,7 @@
         <v>1453</v>
       </c>
       <c r="D750" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E750" s="1" t="s">
         <v>1465</v>
@@ -20134,7 +20142,7 @@
         <v>1453</v>
       </c>
       <c r="D751" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E751" s="1" t="s">
         <v>1466</v>
@@ -20154,7 +20162,7 @@
         <v>1453</v>
       </c>
       <c r="D752" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E752" s="1" t="s">
         <v>1465</v>
@@ -20194,7 +20202,7 @@
         <v>1453</v>
       </c>
       <c r="D754" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E754" s="1" t="s">
         <v>1465</v>
@@ -20214,7 +20222,7 @@
         <v>1453</v>
       </c>
       <c r="D755" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E755" s="1" t="s">
         <v>1465</v>
@@ -20234,7 +20242,7 @@
         <v>1453</v>
       </c>
       <c r="D756" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E756" s="1" t="s">
         <v>1465</v>
@@ -20254,7 +20262,7 @@
         <v>1453</v>
       </c>
       <c r="D757" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E757" s="1" t="s">
         <v>1465</v>
@@ -20274,7 +20282,7 @@
         <v>1453</v>
       </c>
       <c r="D758" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E758" s="1" t="s">
         <v>1465</v>
@@ -20314,7 +20322,7 @@
         <v>1453</v>
       </c>
       <c r="D760" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E760" s="1" t="s">
         <v>1465</v>
@@ -20334,7 +20342,7 @@
         <v>1453</v>
       </c>
       <c r="D761" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E761" s="1" t="s">
         <v>1465</v>
@@ -20414,7 +20422,7 @@
         <v>1453</v>
       </c>
       <c r="D765" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E765" s="1" t="s">
         <v>1465</v>
@@ -20434,7 +20442,7 @@
         <v>1453</v>
       </c>
       <c r="D766" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E766" s="1" t="s">
         <v>1465</v>
@@ -20474,7 +20482,7 @@
         <v>1455</v>
       </c>
       <c r="D768" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E768" s="1" t="s">
         <v>1465</v>
@@ -20494,7 +20502,7 @@
         <v>1455</v>
       </c>
       <c r="D769" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E769" s="1" t="s">
         <v>1467</v>
@@ -20514,7 +20522,7 @@
         <v>1455</v>
       </c>
       <c r="D770" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E770" s="1" t="s">
         <v>1467</v>
@@ -20554,7 +20562,7 @@
         <v>1453</v>
       </c>
       <c r="D772" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E772" s="1" t="s">
         <v>1467</v>
@@ -20594,7 +20602,7 @@
         <v>1453</v>
       </c>
       <c r="D774" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E774" s="1" t="s">
         <v>1467</v>
@@ -20614,7 +20622,7 @@
         <v>1453</v>
       </c>
       <c r="D775" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E775" s="1" t="s">
         <v>1467</v>
@@ -20634,7 +20642,7 @@
         <v>1453</v>
       </c>
       <c r="D776" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E776" s="1" t="s">
         <v>1467</v>
@@ -20654,7 +20662,7 @@
         <v>1453</v>
       </c>
       <c r="D777" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E777" s="1" t="s">
         <v>1467</v>
@@ -20694,7 +20702,7 @@
         <v>1453</v>
       </c>
       <c r="D779" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E779" s="1" t="s">
         <v>1467</v>
@@ -20714,7 +20722,7 @@
         <v>1453</v>
       </c>
       <c r="D780" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E780" s="1" t="s">
         <v>1467</v>
@@ -20754,7 +20762,7 @@
         <v>1453</v>
       </c>
       <c r="D782" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E782" s="1" t="s">
         <v>1467</v>
@@ -20774,7 +20782,7 @@
         <v>1453</v>
       </c>
       <c r="D783" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E783" s="1" t="s">
         <v>1467</v>
@@ -20794,7 +20802,7 @@
         <v>1453</v>
       </c>
       <c r="D784" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E784" s="1" t="s">
         <v>1467</v>
@@ -20814,7 +20822,7 @@
         <v>1453</v>
       </c>
       <c r="D785" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E785" s="1" t="s">
         <v>1467</v>
@@ -20854,7 +20862,7 @@
         <v>1453</v>
       </c>
       <c r="D787" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E787" s="1" t="s">
         <v>1467</v>
@@ -20874,7 +20882,7 @@
         <v>1453</v>
       </c>
       <c r="D788" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E788" s="1" t="s">
         <v>1467</v>
@@ -20894,7 +20902,7 @@
         <v>1453</v>
       </c>
       <c r="D789" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E789" s="1" t="s">
         <v>1467</v>
@@ -20914,7 +20922,7 @@
         <v>1453</v>
       </c>
       <c r="D790" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E790" s="1" t="s">
         <v>1467</v>
@@ -20934,7 +20942,7 @@
         <v>1453</v>
       </c>
       <c r="D791" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E791" s="1" t="s">
         <v>1467</v>
@@ -20954,7 +20962,7 @@
         <v>1453</v>
       </c>
       <c r="D792" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E792" s="1" t="s">
         <v>1467</v>
@@ -20974,7 +20982,7 @@
         <v>1453</v>
       </c>
       <c r="D793" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E793" s="1" t="s">
         <v>1467</v>
@@ -21014,7 +21022,7 @@
         <v>1453</v>
       </c>
       <c r="D795" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E795" s="1" t="s">
         <v>1467</v>
@@ -21034,7 +21042,7 @@
         <v>1453</v>
       </c>
       <c r="D796" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E796" s="1" t="s">
         <v>1467</v>
@@ -21074,7 +21082,7 @@
         <v>1453</v>
       </c>
       <c r="D798" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E798" s="1" t="s">
         <v>1467</v>
@@ -21094,7 +21102,7 @@
         <v>1453</v>
       </c>
       <c r="D799" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E799" s="1" t="s">
         <v>1457</v>
@@ -21114,7 +21122,7 @@
         <v>1453</v>
       </c>
       <c r="D800" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E800" s="1" t="s">
         <v>1467</v>
@@ -21134,7 +21142,7 @@
         <v>1453</v>
       </c>
       <c r="D801" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E801" s="1" t="s">
         <v>1457</v>
@@ -21154,7 +21162,7 @@
         <v>1453</v>
       </c>
       <c r="D802" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E802" s="1" t="s">
         <v>1467</v>
@@ -21174,7 +21182,7 @@
         <v>1453</v>
       </c>
       <c r="D803" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E803" s="1" t="s">
         <v>1467</v>
@@ -21214,7 +21222,7 @@
         <v>1453</v>
       </c>
       <c r="D805" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E805" s="1" t="s">
         <v>1467</v>
@@ -21234,7 +21242,7 @@
         <v>1453</v>
       </c>
       <c r="D806" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E806" s="1" t="s">
         <v>1467</v>
@@ -21254,7 +21262,7 @@
         <v>1453</v>
       </c>
       <c r="D807" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E807" s="1" t="s">
         <v>1467</v>
@@ -21274,7 +21282,7 @@
         <v>1453</v>
       </c>
       <c r="D808" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E808" s="1" t="s">
         <v>1467</v>
@@ -21314,7 +21322,7 @@
         <v>1453</v>
       </c>
       <c r="D810" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E810" s="1" t="s">
         <v>1457</v>
@@ -21334,7 +21342,7 @@
         <v>1453</v>
       </c>
       <c r="D811" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E811" s="1" t="s">
         <v>1457</v>
@@ -21354,7 +21362,7 @@
         <v>1453</v>
       </c>
       <c r="D812" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E812" s="1" t="s">
         <v>1457</v>
@@ -21374,7 +21382,7 @@
         <v>1453</v>
       </c>
       <c r="D813" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E813" s="1" t="s">
         <v>1467</v>
@@ -21434,7 +21442,7 @@
         <v>1453</v>
       </c>
       <c r="D816" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E816" s="1" t="s">
         <v>1467</v>
@@ -21534,7 +21542,7 @@
         <v>1453</v>
       </c>
       <c r="D821" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E821" s="1" t="s">
         <v>1467</v>
@@ -21554,7 +21562,7 @@
         <v>1453</v>
       </c>
       <c r="D822" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E822" s="1" t="s">
         <v>1467</v>
@@ -21594,7 +21602,7 @@
         <v>1453</v>
       </c>
       <c r="D824" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E824" s="1" t="s">
         <v>1467</v>
@@ -21614,7 +21622,7 @@
         <v>1453</v>
       </c>
       <c r="D825" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E825" s="1" t="s">
         <v>1467</v>
@@ -21634,7 +21642,7 @@
         <v>1453</v>
       </c>
       <c r="D826" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E826" s="1" t="s">
         <v>1467</v>
@@ -21654,7 +21662,7 @@
         <v>1453</v>
       </c>
       <c r="D827" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E827" s="1" t="s">
         <v>1467</v>
@@ -21674,7 +21682,7 @@
         <v>1453</v>
       </c>
       <c r="D828" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E828" s="1" t="s">
         <v>1467</v>
@@ -21714,7 +21722,7 @@
         <v>1453</v>
       </c>
       <c r="D830" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E830" s="1" t="s">
         <v>1467</v>
@@ -21834,7 +21842,7 @@
         <v>1453</v>
       </c>
       <c r="D836" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E836" s="1" t="s">
         <v>1467</v>
@@ -21894,7 +21902,7 @@
         <v>1453</v>
       </c>
       <c r="D839" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E839" s="1" t="s">
         <v>1467</v>
@@ -21914,7 +21922,7 @@
         <v>1453</v>
       </c>
       <c r="D840" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E840" s="1" t="s">
         <v>1467</v>
@@ -21934,7 +21942,7 @@
         <v>1455</v>
       </c>
       <c r="D841" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E841" s="1" t="s">
         <v>1467</v>
@@ -21954,7 +21962,7 @@
         <v>1453</v>
       </c>
       <c r="D842" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E842" s="1" t="s">
         <v>1467</v>
@@ -21974,7 +21982,7 @@
         <v>1453</v>
       </c>
       <c r="D843" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E843" s="1" t="s">
         <v>1467</v>
@@ -22014,7 +22022,7 @@
         <v>1453</v>
       </c>
       <c r="D845" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E845" s="1" t="s">
         <v>1457</v>
@@ -22034,7 +22042,7 @@
         <v>1453</v>
       </c>
       <c r="D846" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E846" s="1" t="s">
         <v>1467</v>
@@ -22054,7 +22062,7 @@
         <v>1453</v>
       </c>
       <c r="D847" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E847" s="1" t="s">
         <v>1467</v>
@@ -22094,7 +22102,7 @@
         <v>1453</v>
       </c>
       <c r="D849" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E849" s="1" t="s">
         <v>1467</v>
@@ -22114,7 +22122,7 @@
         <v>1453</v>
       </c>
       <c r="D850" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E850" s="1" t="s">
         <v>1467</v>
@@ -22134,7 +22142,7 @@
         <v>1453</v>
       </c>
       <c r="D851" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E851" s="1" t="s">
         <v>1467</v>
@@ -22154,7 +22162,7 @@
         <v>1453</v>
       </c>
       <c r="D852" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E852" s="1" t="s">
         <v>1467</v>
@@ -22174,7 +22182,7 @@
         <v>1453</v>
       </c>
       <c r="D853" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E853" s="1" t="s">
         <v>1467</v>
@@ -22194,7 +22202,7 @@
         <v>1453</v>
       </c>
       <c r="D854" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E854" s="1" t="s">
         <v>1467</v>
@@ -22234,7 +22242,7 @@
         <v>1453</v>
       </c>
       <c r="D856" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E856" s="1" t="s">
         <v>1467</v>
@@ -22254,7 +22262,7 @@
         <v>1455</v>
       </c>
       <c r="D857" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E857" s="1" t="s">
         <v>1467</v>
@@ -22274,7 +22282,7 @@
         <v>1453</v>
       </c>
       <c r="D858" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E858" s="1" t="s">
         <v>1467</v>
@@ -22294,7 +22302,7 @@
         <v>1453</v>
       </c>
       <c r="D859" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E859" s="1" t="s">
         <v>1467</v>
@@ -22314,7 +22322,7 @@
         <v>1453</v>
       </c>
       <c r="D860" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E860" s="1" t="s">
         <v>1467</v>
@@ -22354,7 +22362,7 @@
         <v>1453</v>
       </c>
       <c r="D862" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E862" s="1" t="s">
         <v>1467</v>
@@ -22374,7 +22382,7 @@
         <v>1453</v>
       </c>
       <c r="D863" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E863" s="1" t="s">
         <v>1467</v>
@@ -22414,7 +22422,7 @@
         <v>1453</v>
       </c>
       <c r="D865" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E865" s="1" t="s">
         <v>1467</v>
@@ -22434,7 +22442,7 @@
         <v>1453</v>
       </c>
       <c r="D866" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E866" s="1" t="s">
         <v>1467</v>
@@ -22454,7 +22462,7 @@
         <v>1453</v>
       </c>
       <c r="D867" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E867" s="1" t="s">
         <v>1467</v>
@@ -22474,7 +22482,7 @@
         <v>1455</v>
       </c>
       <c r="D868" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E868" s="1" t="s">
         <v>1467</v>
@@ -22514,7 +22522,7 @@
         <v>1453</v>
       </c>
       <c r="D870" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E870" s="1" t="s">
         <v>1467</v>
@@ -22534,7 +22542,7 @@
         <v>1453</v>
       </c>
       <c r="D871" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E871" s="1" t="s">
         <v>1467</v>
@@ -22554,7 +22562,7 @@
         <v>1453</v>
       </c>
       <c r="D872" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E872" s="1" t="s">
         <v>1467</v>
@@ -22574,7 +22582,7 @@
         <v>1453</v>
       </c>
       <c r="D873" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E873" s="1" t="s">
         <v>1467</v>
@@ -22594,7 +22602,7 @@
         <v>1453</v>
       </c>
       <c r="D874" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E874" s="1" t="s">
         <v>1467</v>
@@ -22614,7 +22622,7 @@
         <v>1453</v>
       </c>
       <c r="D875" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E875" s="1" t="s">
         <v>1467</v>
@@ -22674,7 +22682,7 @@
         <v>1453</v>
       </c>
       <c r="D878" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E878" s="1" t="s">
         <v>1467</v>
@@ -22714,7 +22722,7 @@
         <v>1453</v>
       </c>
       <c r="D880" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E880" s="1" t="s">
         <v>1467</v>
@@ -22734,7 +22742,7 @@
         <v>1453</v>
       </c>
       <c r="D881" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E881" s="1" t="s">
         <v>1467</v>
@@ -22754,7 +22762,7 @@
         <v>1453</v>
       </c>
       <c r="D882" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E882" s="1" t="s">
         <v>1467</v>
@@ -22794,7 +22802,7 @@
         <v>1455</v>
       </c>
       <c r="D884" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E884" s="1" t="s">
         <v>1467</v>
@@ -22854,7 +22862,7 @@
         <v>1453</v>
       </c>
       <c r="D887" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E887" s="1" t="s">
         <v>1467</v>
@@ -22874,7 +22882,7 @@
         <v>1453</v>
       </c>
       <c r="D888" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E888" s="1" t="s">
         <v>1466</v>
@@ -22914,7 +22922,7 @@
         <v>1453</v>
       </c>
       <c r="D890" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E890" s="1" t="s">
         <v>1467</v>
@@ -22954,7 +22962,7 @@
         <v>1453</v>
       </c>
       <c r="D892" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E892" s="1" t="s">
         <v>1467</v>
@@ -23034,7 +23042,7 @@
         <v>1453</v>
       </c>
       <c r="D896" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E896" s="1" t="s">
         <v>1466</v>
@@ -23094,7 +23102,7 @@
         <v>1453</v>
       </c>
       <c r="D899" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E899" s="1" t="s">
         <v>1466</v>
@@ -23114,7 +23122,7 @@
         <v>1455</v>
       </c>
       <c r="D900" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E900" s="1" t="s">
         <v>1466</v>
@@ -23173,7 +23181,9 @@
       <c r="C903" s="1" t="s">
         <v>1453</v>
       </c>
-      <c r="D903" s="3"/>
+      <c r="D903" s="3" t="s">
+        <v>1486</v>
+      </c>
       <c r="E903" s="1" t="s">
         <v>1467</v>
       </c>
@@ -23212,7 +23222,7 @@
         <v>1453</v>
       </c>
       <c r="D905" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E905" s="1" t="s">
         <v>1467</v>
@@ -23232,7 +23242,7 @@
         <v>1453</v>
       </c>
       <c r="D906" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E906" s="1" t="s">
         <v>1467</v>
@@ -23272,7 +23282,7 @@
         <v>1453</v>
       </c>
       <c r="D908" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E908" s="1" t="s">
         <v>1466</v>
@@ -23292,7 +23302,7 @@
         <v>1453</v>
       </c>
       <c r="D909" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E909" s="1" t="s">
         <v>1466</v>
@@ -23392,7 +23402,7 @@
         <v>1453</v>
       </c>
       <c r="D914" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E914" s="1" t="s">
         <v>1466</v>
@@ -23412,7 +23422,7 @@
         <v>1455</v>
       </c>
       <c r="D915" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E915" s="1" t="s">
         <v>1466</v>
@@ -23432,7 +23442,7 @@
         <v>1453</v>
       </c>
       <c r="D916" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E916" s="1" t="s">
         <v>1466</v>
@@ -23452,7 +23462,7 @@
         <v>1453</v>
       </c>
       <c r="D917" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E917" s="1" t="s">
         <v>1466</v>
@@ -23472,7 +23482,7 @@
         <v>1453</v>
       </c>
       <c r="D918" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E918" s="2" t="s">
         <v>1469</v>
@@ -23492,7 +23502,7 @@
         <v>1455</v>
       </c>
       <c r="D919" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E919" s="1" t="s">
         <v>1466</v>
@@ -23511,7 +23521,9 @@
       <c r="C920" s="1" t="s">
         <v>1453</v>
       </c>
-      <c r="D920" s="3"/>
+      <c r="D920" s="3" t="s">
+        <v>1486</v>
+      </c>
       <c r="E920" s="1" t="s">
         <v>1467</v>
       </c>
@@ -23550,7 +23562,7 @@
         <v>1453</v>
       </c>
       <c r="D922" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E922" s="1" t="s">
         <v>1466</v>
@@ -23570,7 +23582,7 @@
         <v>1453</v>
       </c>
       <c r="D923" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E923" s="1" t="s">
         <v>1467</v>
@@ -23590,7 +23602,7 @@
         <v>1453</v>
       </c>
       <c r="D924" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E924" s="1" t="s">
         <v>1466</v>
@@ -23610,7 +23622,7 @@
         <v>1453</v>
       </c>
       <c r="D925" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E925" s="1" t="s">
         <v>1466</v>
@@ -23630,7 +23642,7 @@
         <v>1453</v>
       </c>
       <c r="D926" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E926" s="1" t="s">
         <v>1466</v>
@@ -23650,7 +23662,7 @@
         <v>1453</v>
       </c>
       <c r="D927" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E927" s="1" t="s">
         <v>1466</v>
@@ -23690,7 +23702,7 @@
         <v>1453</v>
       </c>
       <c r="D929" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E929" s="1" t="s">
         <v>1466</v>
@@ -23730,7 +23742,7 @@
         <v>1453</v>
       </c>
       <c r="D931" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E931" s="1" t="s">
         <v>1466</v>
@@ -23750,7 +23762,7 @@
         <v>1453</v>
       </c>
       <c r="D932" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E932" s="1" t="s">
         <v>1466</v>
@@ -23770,7 +23782,7 @@
         <v>1453</v>
       </c>
       <c r="D933" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E933" s="1" t="s">
         <v>1466</v>
@@ -23810,7 +23822,7 @@
         <v>1453</v>
       </c>
       <c r="D935" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E935" s="1" t="s">
         <v>1467</v>
@@ -23870,7 +23882,7 @@
         <v>1453</v>
       </c>
       <c r="D938" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E938" s="1" t="s">
         <v>1466</v>
@@ -23910,7 +23922,7 @@
         <v>1453</v>
       </c>
       <c r="D940" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E940" s="1" t="s">
         <v>1466</v>
@@ -23930,7 +23942,7 @@
         <v>1453</v>
       </c>
       <c r="D941" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E941" s="1" t="s">
         <v>1467</v>
@@ -23950,7 +23962,7 @@
         <v>1453</v>
       </c>
       <c r="D942" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E942" s="1" t="s">
         <v>1469</v>
@@ -23970,7 +23982,7 @@
         <v>1453</v>
       </c>
       <c r="D943" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E943" s="1" t="s">
         <v>1466</v>
@@ -23990,7 +24002,7 @@
         <v>1453</v>
       </c>
       <c r="D944" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E944" s="1" t="s">
         <v>1466</v>
@@ -24010,7 +24022,7 @@
         <v>1453</v>
       </c>
       <c r="D945" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E945" s="1" t="s">
         <v>1466</v>
@@ -24030,7 +24042,7 @@
         <v>1453</v>
       </c>
       <c r="D946" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E946" s="1" t="s">
         <v>1466</v>
@@ -24050,7 +24062,7 @@
         <v>1455</v>
       </c>
       <c r="D947" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E947" s="1" t="s">
         <v>1467</v>
@@ -24070,7 +24082,7 @@
         <v>1453</v>
       </c>
       <c r="D948" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E948" s="1" t="s">
         <v>1466</v>
@@ -24090,7 +24102,7 @@
         <v>1453</v>
       </c>
       <c r="D949" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E949" s="1" t="s">
         <v>1467</v>
@@ -24110,7 +24122,7 @@
         <v>1453</v>
       </c>
       <c r="D950" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E950" s="1" t="s">
         <v>1466</v>
@@ -24130,7 +24142,7 @@
         <v>1453</v>
       </c>
       <c r="D951" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E951" s="1" t="s">
         <v>1467</v>
@@ -24150,7 +24162,7 @@
         <v>1453</v>
       </c>
       <c r="D952" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E952" s="1" t="s">
         <v>1466</v>
@@ -24170,7 +24182,7 @@
         <v>1455</v>
       </c>
       <c r="D953" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E953" s="1" t="s">
         <v>1467</v>
@@ -24190,7 +24202,7 @@
         <v>1453</v>
       </c>
       <c r="D954" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E954" s="1" t="s">
         <v>1466</v>
@@ -24210,7 +24222,7 @@
         <v>1453</v>
       </c>
       <c r="D955" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E955" s="2" t="s">
         <v>1469</v>
@@ -24230,7 +24242,7 @@
         <v>1453</v>
       </c>
       <c r="D956" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E956" s="2" t="s">
         <v>1469</v>
@@ -24430,7 +24442,7 @@
         <v>1453</v>
       </c>
       <c r="D966" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E966" s="2" t="s">
         <v>1469</v>
@@ -24510,7 +24522,7 @@
         <v>1453</v>
       </c>
       <c r="D970" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E970" s="2" t="s">
         <v>1469</v>
@@ -24530,7 +24542,7 @@
         <v>1453</v>
       </c>
       <c r="D971" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E971" s="2" t="s">
         <v>1469</v>
@@ -24550,7 +24562,7 @@
         <v>1453</v>
       </c>
       <c r="D972" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E972" s="2" t="s">
         <v>1469</v>
@@ -24590,7 +24602,7 @@
         <v>1453</v>
       </c>
       <c r="D974" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E974" s="2" t="s">
         <v>1469</v>
@@ -24630,7 +24642,7 @@
         <v>1453</v>
       </c>
       <c r="D976" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E976" s="2" t="s">
         <v>1469</v>
@@ -24670,7 +24682,7 @@
         <v>1453</v>
       </c>
       <c r="D978" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E978" s="2" t="s">
         <v>1469</v>
@@ -24710,7 +24722,7 @@
         <v>1453</v>
       </c>
       <c r="D980" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E980" s="1" t="s">
         <v>1468</v>
@@ -24730,7 +24742,7 @@
         <v>1453</v>
       </c>
       <c r="D981" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E981" s="1" t="s">
         <v>1468</v>
@@ -24750,7 +24762,7 @@
         <v>1453</v>
       </c>
       <c r="D982" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E982" s="1" t="s">
         <v>1468</v>
@@ -24770,7 +24782,7 @@
         <v>1453</v>
       </c>
       <c r="D983" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E983" s="1" t="s">
         <v>1468</v>
@@ -24790,7 +24802,7 @@
         <v>1453</v>
       </c>
       <c r="D984" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E984" s="1" t="s">
         <v>1468</v>
@@ -24810,7 +24822,7 @@
         <v>1453</v>
       </c>
       <c r="D985" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E985" s="1" t="s">
         <v>1468</v>
@@ -24850,7 +24862,7 @@
         <v>1453</v>
       </c>
       <c r="D987" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E987" s="2" t="s">
         <v>1469</v>
@@ -24950,7 +24962,7 @@
         <v>1453</v>
       </c>
       <c r="D992" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E992" s="2" t="s">
         <v>1469</v>
@@ -25010,7 +25022,7 @@
         <v>1453</v>
       </c>
       <c r="D995" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E995" s="2" t="s">
         <v>1469</v>
@@ -25050,7 +25062,7 @@
         <v>1453</v>
       </c>
       <c r="D997" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E997" s="2" t="s">
         <v>1469</v>
@@ -25070,7 +25082,7 @@
         <v>1453</v>
       </c>
       <c r="D998" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E998" s="2" t="s">
         <v>1469</v>
@@ -25150,7 +25162,7 @@
         <v>1453</v>
       </c>
       <c r="D1002" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1002" s="2" t="s">
         <v>1469</v>
@@ -25170,7 +25182,7 @@
         <v>1453</v>
       </c>
       <c r="D1003" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1003" s="2" t="s">
         <v>1469</v>
@@ -25190,7 +25202,7 @@
         <v>1453</v>
       </c>
       <c r="D1004" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1004" s="2" t="s">
         <v>1469</v>
@@ -25230,7 +25242,7 @@
         <v>1453</v>
       </c>
       <c r="D1006" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1006" s="2" t="s">
         <v>1469</v>
@@ -25250,7 +25262,7 @@
         <v>1453</v>
       </c>
       <c r="D1007" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1007" s="2" t="s">
         <v>1469</v>
@@ -25270,7 +25282,7 @@
         <v>1453</v>
       </c>
       <c r="D1008" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1008" s="2" t="s">
         <v>1469</v>
@@ -25290,7 +25302,7 @@
         <v>1453</v>
       </c>
       <c r="D1009" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1009" s="2" t="s">
         <v>1469</v>
@@ -25330,7 +25342,7 @@
         <v>1455</v>
       </c>
       <c r="D1011" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1011" s="2" t="s">
         <v>1469</v>
@@ -25350,7 +25362,7 @@
         <v>1453</v>
       </c>
       <c r="D1012" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1012" s="2" t="s">
         <v>1469</v>
@@ -25370,7 +25382,7 @@
         <v>1453</v>
       </c>
       <c r="D1013" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1013" s="2" t="s">
         <v>1469</v>
@@ -25430,7 +25442,7 @@
         <v>1453</v>
       </c>
       <c r="D1016" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1016" s="2" t="s">
         <v>1469</v>
@@ -25470,7 +25482,7 @@
         <v>1453</v>
       </c>
       <c r="D1018" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1018" s="2" t="s">
         <v>1469</v>
@@ -25490,7 +25502,7 @@
         <v>1453</v>
       </c>
       <c r="D1019" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1019" s="2" t="s">
         <v>1469</v>
@@ -25550,7 +25562,7 @@
         <v>1455</v>
       </c>
       <c r="D1022" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1022" s="2" t="s">
         <v>1469</v>
@@ -25570,7 +25582,7 @@
         <v>1453</v>
       </c>
       <c r="D1023" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1023" s="2" t="s">
         <v>1469</v>
@@ -25590,7 +25602,7 @@
         <v>1453</v>
       </c>
       <c r="D1024" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1024" s="2" t="s">
         <v>1469</v>
@@ -25610,7 +25622,7 @@
         <v>1453</v>
       </c>
       <c r="D1025" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1025" s="2" t="s">
         <v>1469</v>
@@ -25650,7 +25662,7 @@
         <v>1453</v>
       </c>
       <c r="D1027" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1027" s="2" t="s">
         <v>1469</v>
@@ -25670,7 +25682,7 @@
         <v>1453</v>
       </c>
       <c r="D1028" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1028" s="2" t="s">
         <v>1469</v>
@@ -25690,7 +25702,7 @@
         <v>1453</v>
       </c>
       <c r="D1029" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1029" s="2" t="s">
         <v>1469</v>
@@ -25710,7 +25722,7 @@
         <v>1453</v>
       </c>
       <c r="D1030" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1030" s="2" t="s">
         <v>1469</v>
@@ -25730,7 +25742,7 @@
         <v>1453</v>
       </c>
       <c r="D1031" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1031" s="2" t="s">
         <v>1469</v>
@@ -25770,7 +25782,7 @@
         <v>1453</v>
       </c>
       <c r="D1033" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1033" s="1" t="s">
         <v>1468</v>
@@ -25810,7 +25822,7 @@
         <v>1453</v>
       </c>
       <c r="D1035" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1035" s="1" t="s">
         <v>1468</v>
@@ -25830,7 +25842,7 @@
         <v>1453</v>
       </c>
       <c r="D1036" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1036" s="1" t="s">
         <v>1468</v>
@@ -25850,7 +25862,7 @@
         <v>1453</v>
       </c>
       <c r="D1037" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1037" s="1" t="s">
         <v>1468</v>
@@ -25870,7 +25882,7 @@
         <v>1453</v>
       </c>
       <c r="D1038" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1038" s="1" t="s">
         <v>1468</v>
@@ -25930,7 +25942,7 @@
         <v>1453</v>
       </c>
       <c r="D1041" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1041" s="1" t="s">
         <v>1468</v>
@@ -25970,7 +25982,7 @@
         <v>1453</v>
       </c>
       <c r="D1043" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1043" s="1" t="s">
         <v>1468</v>
@@ -25990,7 +26002,7 @@
         <v>1453</v>
       </c>
       <c r="D1044" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1044" s="1" t="s">
         <v>1468</v>
@@ -26010,7 +26022,7 @@
         <v>1453</v>
       </c>
       <c r="D1045" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1045" s="1" t="s">
         <v>1468</v>
@@ -26070,7 +26082,7 @@
         <v>1453</v>
       </c>
       <c r="D1048" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1048" s="1" t="s">
         <v>1468</v>
@@ -26090,7 +26102,7 @@
         <v>1453</v>
       </c>
       <c r="D1049" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1049" s="1" t="s">
         <v>1468</v>
@@ -26110,7 +26122,7 @@
         <v>1453</v>
       </c>
       <c r="D1050" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1050" s="1" t="s">
         <v>1468</v>
@@ -26130,7 +26142,7 @@
         <v>1453</v>
       </c>
       <c r="D1051" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1051" s="1" t="s">
         <v>1468</v>
@@ -26170,7 +26182,7 @@
         <v>1453</v>
       </c>
       <c r="D1053" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1053" s="1" t="s">
         <v>1461</v>
@@ -26190,7 +26202,7 @@
         <v>1453</v>
       </c>
       <c r="D1054" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1054" s="1" t="s">
         <v>1468</v>
@@ -26250,7 +26262,7 @@
         <v>1453</v>
       </c>
       <c r="D1057" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1057" s="1" t="s">
         <v>1468</v>
@@ -26270,7 +26282,7 @@
         <v>1455</v>
       </c>
       <c r="D1058" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1058" s="1" t="s">
         <v>1468</v>
@@ -26290,7 +26302,7 @@
         <v>1453</v>
       </c>
       <c r="D1059" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1059" s="1" t="s">
         <v>1468</v>
@@ -26310,7 +26322,7 @@
         <v>1453</v>
       </c>
       <c r="D1060" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1060" s="1" t="s">
         <v>1468</v>
@@ -26370,7 +26382,7 @@
         <v>1453</v>
       </c>
       <c r="D1063" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1063" s="1" t="s">
         <v>1468</v>
@@ -26390,7 +26402,7 @@
         <v>1453</v>
       </c>
       <c r="D1064" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1064" s="1" t="s">
         <v>1468</v>
@@ -26410,7 +26422,7 @@
         <v>1453</v>
       </c>
       <c r="D1065" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1065" s="1" t="s">
         <v>1468</v>
@@ -26430,7 +26442,7 @@
         <v>1453</v>
       </c>
       <c r="D1066" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1066" s="1" t="s">
         <v>1468</v>
@@ -26490,7 +26502,7 @@
         <v>1455</v>
       </c>
       <c r="D1069" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1069" s="1" t="s">
         <v>1468</v>
@@ -26510,7 +26522,7 @@
         <v>1453</v>
       </c>
       <c r="D1070" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1070" s="1" t="s">
         <v>1468</v>
@@ -26530,7 +26542,7 @@
         <v>1453</v>
       </c>
       <c r="D1071" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1071" s="1" t="s">
         <v>1468</v>
@@ -26550,7 +26562,7 @@
         <v>1453</v>
       </c>
       <c r="D1072" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1072" s="1" t="s">
         <v>1468</v>
@@ -26570,7 +26582,7 @@
         <v>1453</v>
       </c>
       <c r="D1073" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1073" s="1" t="s">
         <v>1468</v>
@@ -26690,7 +26702,7 @@
         <v>1453</v>
       </c>
       <c r="D1079" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1079" s="1" t="s">
         <v>1468</v>
@@ -26710,7 +26722,7 @@
         <v>1453</v>
       </c>
       <c r="D1080" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1080" s="2" t="s">
         <v>1470</v>
@@ -26730,7 +26742,7 @@
         <v>1453</v>
       </c>
       <c r="D1081" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1081" s="1" t="s">
         <v>1468</v>
@@ -26750,7 +26762,7 @@
         <v>1453</v>
       </c>
       <c r="D1082" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1082" s="1" t="s">
         <v>1468</v>
@@ -26770,7 +26782,7 @@
         <v>1453</v>
       </c>
       <c r="D1083" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1083" s="1" t="s">
         <v>1468</v>
@@ -26790,7 +26802,7 @@
         <v>1453</v>
       </c>
       <c r="D1084" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1084" s="1" t="s">
         <v>1468</v>
@@ -26810,7 +26822,7 @@
         <v>1453</v>
       </c>
       <c r="D1085" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1085" s="1" t="s">
         <v>1468</v>
@@ -26870,7 +26882,7 @@
         <v>1453</v>
       </c>
       <c r="D1088" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1088" s="1" t="s">
         <v>1468</v>
@@ -26890,7 +26902,7 @@
         <v>1453</v>
       </c>
       <c r="D1089" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1089" s="1" t="s">
         <v>1468</v>
@@ -26970,7 +26982,7 @@
         <v>1453</v>
       </c>
       <c r="D1093" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1093" s="1" t="s">
         <v>1470</v>
@@ -26990,7 +27002,7 @@
         <v>1453</v>
       </c>
       <c r="D1094" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1094" s="1" t="s">
         <v>1470</v>
@@ -27010,7 +27022,7 @@
         <v>1453</v>
       </c>
       <c r="D1095" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1095" s="1" t="s">
         <v>1470</v>
@@ -27030,7 +27042,7 @@
         <v>1453</v>
       </c>
       <c r="D1096" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1096" s="1" t="s">
         <v>1470</v>
@@ -27050,7 +27062,7 @@
         <v>1453</v>
       </c>
       <c r="D1097" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1097" s="1" t="s">
         <v>1470</v>
@@ -27090,7 +27102,7 @@
         <v>1453</v>
       </c>
       <c r="D1099" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1099" s="1" t="s">
         <v>1470</v>
@@ -27110,7 +27122,7 @@
         <v>1453</v>
       </c>
       <c r="D1100" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1100" s="1" t="s">
         <v>1470</v>
@@ -27130,7 +27142,7 @@
         <v>1453</v>
       </c>
       <c r="D1101" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1101" s="1" t="s">
         <v>1470</v>
@@ -27150,7 +27162,7 @@
         <v>1453</v>
       </c>
       <c r="D1102" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1102" s="1" t="s">
         <v>1470</v>
@@ -27190,7 +27202,7 @@
         <v>1453</v>
       </c>
       <c r="D1104" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1104" s="1" t="s">
         <v>1470</v>
@@ -27210,7 +27222,7 @@
         <v>1453</v>
       </c>
       <c r="D1105" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1105" s="1" t="s">
         <v>1470</v>
@@ -27350,7 +27362,7 @@
         <v>1453</v>
       </c>
       <c r="D1112" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1112" s="1" t="s">
         <v>1470</v>
@@ -27390,7 +27402,7 @@
         <v>1453</v>
       </c>
       <c r="D1114" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1114" s="1" t="s">
         <v>1470</v>
@@ -27430,7 +27442,7 @@
         <v>1453</v>
       </c>
       <c r="D1116" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1116" s="1" t="s">
         <v>1470</v>
@@ -27450,7 +27462,7 @@
         <v>1455</v>
       </c>
       <c r="D1117" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1117" s="1" t="s">
         <v>1470</v>
@@ -27470,7 +27482,7 @@
         <v>1453</v>
       </c>
       <c r="D1118" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1118" s="1" t="s">
         <v>1470</v>
@@ -27510,7 +27522,7 @@
         <v>1453</v>
       </c>
       <c r="D1120" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1120" s="1" t="s">
         <v>1470</v>
@@ -27530,7 +27542,7 @@
         <v>1453</v>
       </c>
       <c r="D1121" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1121" s="1" t="s">
         <v>1470</v>
@@ -27670,7 +27682,7 @@
         <v>1453</v>
       </c>
       <c r="D1128" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1128" s="1" t="s">
         <v>1470</v>
@@ -27690,7 +27702,7 @@
         <v>1453</v>
       </c>
       <c r="D1129" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1129" s="1" t="s">
         <v>1470</v>
@@ -27730,7 +27742,7 @@
         <v>1453</v>
       </c>
       <c r="D1131" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1131" s="1" t="s">
         <v>1470</v>
@@ -27750,7 +27762,7 @@
         <v>1453</v>
       </c>
       <c r="D1132" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1132" s="1" t="s">
         <v>1470</v>
@@ -27770,7 +27782,7 @@
         <v>1453</v>
       </c>
       <c r="D1133" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1133" s="1" t="s">
         <v>1470</v>
@@ -27790,7 +27802,7 @@
         <v>1453</v>
       </c>
       <c r="D1134" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1134" s="1" t="s">
         <v>1470</v>
@@ -27810,7 +27822,7 @@
         <v>1453</v>
       </c>
       <c r="D1135" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1135" s="1" t="s">
         <v>1470</v>
@@ -27850,7 +27862,7 @@
         <v>1453</v>
       </c>
       <c r="D1137" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1137" s="1" t="s">
         <v>1470</v>
@@ -27870,7 +27882,7 @@
         <v>1453</v>
       </c>
       <c r="D1138" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1138" s="1" t="s">
         <v>1470</v>
@@ -27930,7 +27942,7 @@
         <v>1453</v>
       </c>
       <c r="D1141" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1141" s="1" t="s">
         <v>1470</v>
@@ -27970,7 +27982,7 @@
         <v>1453</v>
       </c>
       <c r="D1143" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1143" s="1" t="s">
         <v>1470</v>
@@ -27990,7 +28002,7 @@
         <v>1453</v>
       </c>
       <c r="D1144" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1144" s="1" t="s">
         <v>1470</v>
@@ -28030,7 +28042,7 @@
         <v>1453</v>
       </c>
       <c r="D1146" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1146" s="1" t="s">
         <v>1470</v>
@@ -28050,7 +28062,7 @@
         <v>1453</v>
       </c>
       <c r="D1147" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1147" s="1" t="s">
         <v>1471</v>
@@ -28070,7 +28082,7 @@
         <v>1453</v>
       </c>
       <c r="D1148" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1148" s="1" t="s">
         <v>1470</v>
@@ -28110,7 +28122,7 @@
         <v>1453</v>
       </c>
       <c r="D1150" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1150" s="1" t="s">
         <v>1470</v>
@@ -28170,7 +28182,7 @@
         <v>1453</v>
       </c>
       <c r="D1153" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1153" s="1" t="s">
         <v>1470</v>
@@ -28190,7 +28202,7 @@
         <v>1453</v>
       </c>
       <c r="D1154" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1154" s="1" t="s">
         <v>1470</v>
@@ -28210,7 +28222,7 @@
         <v>1453</v>
       </c>
       <c r="D1155" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1155" s="1" t="s">
         <v>1470</v>
@@ -28230,7 +28242,7 @@
         <v>1453</v>
       </c>
       <c r="D1156" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1156" s="1" t="s">
         <v>1470</v>
@@ -28270,7 +28282,7 @@
         <v>1453</v>
       </c>
       <c r="D1158" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1158" s="1" t="s">
         <v>1470</v>
@@ -28290,7 +28302,7 @@
         <v>1453</v>
       </c>
       <c r="D1159" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1159" s="1" t="s">
         <v>1470</v>
@@ -28330,7 +28342,7 @@
         <v>1453</v>
       </c>
       <c r="D1161" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1161" s="1" t="s">
         <v>1470</v>
@@ -28350,7 +28362,7 @@
         <v>1453</v>
       </c>
       <c r="D1162" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1162" s="1" t="s">
         <v>1470</v>
@@ -28370,7 +28382,7 @@
         <v>1453</v>
       </c>
       <c r="D1163" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1163" s="1" t="s">
         <v>1470</v>
@@ -28390,7 +28402,7 @@
         <v>1455</v>
       </c>
       <c r="D1164" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1164" s="1" t="s">
         <v>1470</v>
@@ -28410,7 +28422,7 @@
         <v>1453</v>
       </c>
       <c r="D1165" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1165" s="1" t="s">
         <v>1471</v>
@@ -28450,7 +28462,7 @@
         <v>1453</v>
       </c>
       <c r="D1167" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1167" s="1" t="s">
         <v>1470</v>
@@ -28490,7 +28502,7 @@
         <v>1453</v>
       </c>
       <c r="D1169" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1169" s="1" t="s">
         <v>1470</v>
@@ -28530,7 +28542,7 @@
         <v>1453</v>
       </c>
       <c r="D1171" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1171" s="1" t="s">
         <v>1470</v>
@@ -28550,7 +28562,7 @@
         <v>1453</v>
       </c>
       <c r="D1172" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1172" s="1" t="s">
         <v>1470</v>
@@ -28570,7 +28582,7 @@
         <v>1453</v>
       </c>
       <c r="D1173" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1173" s="1" t="s">
         <v>1470</v>
@@ -28590,7 +28602,7 @@
         <v>1453</v>
       </c>
       <c r="D1174" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1174" s="1" t="s">
         <v>1470</v>
@@ -28610,7 +28622,7 @@
         <v>1453</v>
       </c>
       <c r="D1175" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1175" s="1" t="s">
         <v>1470</v>
@@ -28690,7 +28702,7 @@
         <v>1455</v>
       </c>
       <c r="D1179" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1179" s="1" t="s">
         <v>1470</v>
@@ -28750,7 +28762,7 @@
         <v>1455</v>
       </c>
       <c r="D1182" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1182" s="1" t="s">
         <v>1470</v>
@@ -28790,7 +28802,7 @@
         <v>1453</v>
       </c>
       <c r="D1184" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1184" s="1" t="s">
         <v>1470</v>
@@ -28830,7 +28842,7 @@
         <v>1455</v>
       </c>
       <c r="D1186" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1186" s="1" t="s">
         <v>1470</v>
@@ -28890,7 +28902,7 @@
         <v>1453</v>
       </c>
       <c r="D1189" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1189" s="1" t="s">
         <v>1470</v>
@@ -28910,7 +28922,7 @@
         <v>1453</v>
       </c>
       <c r="D1190" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1190" s="1" t="s">
         <v>1470</v>
@@ -28930,7 +28942,7 @@
         <v>1453</v>
       </c>
       <c r="D1191" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1191" s="1" t="s">
         <v>1470</v>
@@ -28970,7 +28982,7 @@
         <v>1453</v>
       </c>
       <c r="D1193" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1193" s="1" t="s">
         <v>1470</v>
@@ -29010,7 +29022,7 @@
         <v>1453</v>
       </c>
       <c r="D1195" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1195" s="1" t="s">
         <v>1470</v>
@@ -29030,7 +29042,7 @@
         <v>1453</v>
       </c>
       <c r="D1196" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1196" s="1" t="s">
         <v>1470</v>
@@ -29070,7 +29082,7 @@
         <v>1453</v>
       </c>
       <c r="D1198" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1198" s="1" t="s">
         <v>1470</v>
@@ -29110,7 +29122,7 @@
         <v>1453</v>
       </c>
       <c r="D1200" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1200" s="1" t="s">
         <v>1470</v>
@@ -29130,7 +29142,7 @@
         <v>1453</v>
       </c>
       <c r="D1201" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1201" s="1" t="s">
         <v>1470</v>
@@ -29150,7 +29162,7 @@
         <v>1453</v>
       </c>
       <c r="D1202" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1202" s="1" t="s">
         <v>1470</v>
@@ -29190,7 +29202,7 @@
         <v>1453</v>
       </c>
       <c r="D1204" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1204" s="1" t="s">
         <v>1470</v>
@@ -29210,7 +29222,7 @@
         <v>1453</v>
       </c>
       <c r="D1205" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1205" s="1" t="s">
         <v>1470</v>
@@ -29250,7 +29262,7 @@
         <v>1453</v>
       </c>
       <c r="D1207" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1207" s="1" t="s">
         <v>1470</v>
@@ -29270,7 +29282,7 @@
         <v>1453</v>
       </c>
       <c r="D1208" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1208" s="1" t="s">
         <v>1470</v>
@@ -29290,7 +29302,7 @@
         <v>1453</v>
       </c>
       <c r="D1209" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1209" s="1" t="s">
         <v>1471</v>
@@ -29310,7 +29322,7 @@
         <v>1453</v>
       </c>
       <c r="D1210" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1210" s="1" t="s">
         <v>1471</v>
@@ -29370,7 +29382,7 @@
         <v>1453</v>
       </c>
       <c r="D1213" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1213" s="1" t="s">
         <v>1471</v>
@@ -29410,7 +29422,7 @@
         <v>1453</v>
       </c>
       <c r="D1215" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1215" s="1" t="s">
         <v>1471</v>
@@ -29430,7 +29442,7 @@
         <v>1453</v>
       </c>
       <c r="D1216" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1216" s="1" t="s">
         <v>1471</v>
@@ -29450,7 +29462,7 @@
         <v>1455</v>
       </c>
       <c r="D1217" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1217" s="1" t="s">
         <v>1471</v>
@@ -29470,7 +29482,7 @@
         <v>1453</v>
       </c>
       <c r="D1218" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1218" s="1" t="s">
         <v>1471</v>
@@ -29550,7 +29562,7 @@
         <v>1453</v>
       </c>
       <c r="D1222" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1222" s="1" t="s">
         <v>1471</v>
@@ -29570,7 +29582,7 @@
         <v>1453</v>
       </c>
       <c r="D1223" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1223" s="1" t="s">
         <v>1471</v>
@@ -29610,7 +29622,7 @@
         <v>1453</v>
       </c>
       <c r="D1225" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1225" s="1" t="s">
         <v>1471</v>
@@ -29670,7 +29682,7 @@
         <v>1453</v>
       </c>
       <c r="D1228" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1228" s="1" t="s">
         <v>1471</v>
@@ -29690,7 +29702,7 @@
         <v>1453</v>
       </c>
       <c r="D1229" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1229" s="1" t="s">
         <v>1471</v>
@@ -29710,7 +29722,7 @@
         <v>1453</v>
       </c>
       <c r="D1230" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1230" s="1" t="s">
         <v>1471</v>
@@ -29750,7 +29762,7 @@
         <v>1453</v>
       </c>
       <c r="D1232" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1232" s="1" t="s">
         <v>1471</v>
@@ -29770,7 +29782,7 @@
         <v>1453</v>
       </c>
       <c r="D1233" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1233" s="1" t="s">
         <v>1471</v>
@@ -29830,7 +29842,7 @@
         <v>1453</v>
       </c>
       <c r="D1236" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1236" s="1" t="s">
         <v>1471</v>
@@ -29850,7 +29862,7 @@
         <v>1453</v>
       </c>
       <c r="D1237" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1237" s="1" t="s">
         <v>1471</v>
@@ -29890,7 +29902,7 @@
         <v>1453</v>
       </c>
       <c r="D1239" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1239" s="1" t="s">
         <v>1471</v>
@@ -29910,7 +29922,7 @@
         <v>1453</v>
       </c>
       <c r="D1240" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1240" s="1" t="s">
         <v>1471</v>
@@ -29930,7 +29942,7 @@
         <v>1453</v>
       </c>
       <c r="D1241" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1241" s="1" t="s">
         <v>1471</v>
@@ -29950,7 +29962,7 @@
         <v>1453</v>
       </c>
       <c r="D1242" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1242" s="1" t="s">
         <v>1471</v>
@@ -29970,7 +29982,7 @@
         <v>1453</v>
       </c>
       <c r="D1243" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1243" s="1" t="s">
         <v>1471</v>
@@ -30010,7 +30022,7 @@
         <v>1453</v>
       </c>
       <c r="D1245" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1245" s="1" t="s">
         <v>1471</v>
@@ -30030,7 +30042,7 @@
         <v>1453</v>
       </c>
       <c r="D1246" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1246" s="1" t="s">
         <v>1471</v>
@@ -30050,7 +30062,7 @@
         <v>1453</v>
       </c>
       <c r="D1247" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1247" s="1" t="s">
         <v>1471</v>
@@ -30070,7 +30082,7 @@
         <v>1453</v>
       </c>
       <c r="D1248" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1248" s="1" t="s">
         <v>1471</v>
@@ -30110,7 +30122,7 @@
         <v>1453</v>
       </c>
       <c r="D1250" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1250" s="1" t="s">
         <v>1471</v>
@@ -30130,7 +30142,7 @@
         <v>1453</v>
       </c>
       <c r="D1251" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1251" s="1" t="s">
         <v>1471</v>
@@ -30170,7 +30182,7 @@
         <v>1455</v>
       </c>
       <c r="D1253" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1253" s="1" t="s">
         <v>1471</v>
@@ -30270,7 +30282,7 @@
         <v>1453</v>
       </c>
       <c r="D1258" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1258" s="1" t="s">
         <v>1471</v>
@@ -30290,7 +30302,7 @@
         <v>1453</v>
       </c>
       <c r="D1259" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1259" s="1" t="s">
         <v>1471</v>
@@ -30330,7 +30342,7 @@
         <v>1453</v>
       </c>
       <c r="D1261" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1261" s="1" t="s">
         <v>1471</v>
@@ -30370,7 +30382,7 @@
         <v>1453</v>
       </c>
       <c r="D1263" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1263" s="1" t="s">
         <v>1471</v>
@@ -30390,7 +30402,7 @@
         <v>1453</v>
       </c>
       <c r="D1264" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1264" s="1" t="s">
         <v>1471</v>
@@ -30410,7 +30422,7 @@
         <v>1453</v>
       </c>
       <c r="D1265" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1265" s="1" t="s">
         <v>1471</v>
@@ -30490,7 +30502,7 @@
         <v>1453</v>
       </c>
       <c r="D1269" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1269" s="1" t="s">
         <v>1471</v>
@@ -30510,7 +30522,7 @@
         <v>1453</v>
       </c>
       <c r="D1270" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1270" s="1" t="s">
         <v>1471</v>
@@ -30530,7 +30542,7 @@
         <v>1453</v>
       </c>
       <c r="D1271" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1271" s="1" t="s">
         <v>1471</v>
@@ -30550,7 +30562,7 @@
         <v>1453</v>
       </c>
       <c r="D1272" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1272" s="1" t="s">
         <v>1471</v>
@@ -30590,7 +30602,7 @@
         <v>1453</v>
       </c>
       <c r="D1274" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1274" s="1" t="s">
         <v>1471</v>
@@ -30610,7 +30622,7 @@
         <v>1453</v>
       </c>
       <c r="D1275" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1275" s="1" t="s">
         <v>1471</v>
@@ -30670,7 +30682,7 @@
         <v>1453</v>
       </c>
       <c r="D1278" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1278" s="1" t="s">
         <v>1471</v>
@@ -30710,7 +30722,7 @@
         <v>1455</v>
       </c>
       <c r="D1280" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1280" s="1" t="s">
         <v>1471</v>
@@ -30770,7 +30782,7 @@
         <v>1453</v>
       </c>
       <c r="D1283" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1283" s="1" t="s">
         <v>1471</v>
@@ -30790,7 +30802,7 @@
         <v>1453</v>
       </c>
       <c r="D1284" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1284" s="1" t="s">
         <v>1471</v>
@@ -30810,7 +30822,7 @@
         <v>1453</v>
       </c>
       <c r="D1285" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1285" s="1" t="s">
         <v>1471</v>
@@ -30830,7 +30842,7 @@
         <v>1455</v>
       </c>
       <c r="D1286" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1286" s="1" t="s">
         <v>1471</v>
@@ -30850,7 +30862,7 @@
         <v>1453</v>
       </c>
       <c r="D1287" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1287" s="1" t="s">
         <v>1471</v>
@@ -30870,7 +30882,7 @@
         <v>1453</v>
       </c>
       <c r="D1288" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1288" s="1" t="s">
         <v>1471</v>
@@ -30890,7 +30902,7 @@
         <v>1453</v>
       </c>
       <c r="D1289" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1289" s="1" t="s">
         <v>1471</v>
@@ -30910,7 +30922,7 @@
         <v>1453</v>
       </c>
       <c r="D1290" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1290" s="1" t="s">
         <v>1471</v>
@@ -30930,7 +30942,7 @@
         <v>1453</v>
       </c>
       <c r="D1291" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1291" s="1" t="s">
         <v>1471</v>
@@ -30950,7 +30962,7 @@
         <v>1453</v>
       </c>
       <c r="D1292" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1292" s="1" t="s">
         <v>1471</v>
@@ -30990,7 +31002,7 @@
         <v>1455</v>
       </c>
       <c r="D1294" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1294" s="1" t="s">
         <v>1471</v>
@@ -31050,7 +31062,7 @@
         <v>1453</v>
       </c>
       <c r="D1297" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1297" s="1" t="s">
         <v>1471</v>
@@ -31130,7 +31142,7 @@
         <v>1453</v>
       </c>
       <c r="D1301" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1301" s="1" t="s">
         <v>1472</v>
@@ -31150,7 +31162,7 @@
         <v>1455</v>
       </c>
       <c r="D1302" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1302" s="1" t="s">
         <v>1471</v>
@@ -31170,7 +31182,7 @@
         <v>1453</v>
       </c>
       <c r="D1303" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1303" s="1" t="s">
         <v>1471</v>
@@ -31190,7 +31202,7 @@
         <v>1453</v>
       </c>
       <c r="D1304" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1304" s="1" t="s">
         <v>1471</v>
@@ -31210,7 +31222,7 @@
         <v>1453</v>
       </c>
       <c r="D1305" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1305" s="1" t="s">
         <v>1471</v>
@@ -31250,7 +31262,7 @@
         <v>1453</v>
       </c>
       <c r="D1307" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1307" s="1" t="s">
         <v>1471</v>
@@ -31310,7 +31322,7 @@
         <v>1453</v>
       </c>
       <c r="D1310" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1310" s="1" t="s">
         <v>1471</v>
@@ -31350,7 +31362,7 @@
         <v>1453</v>
       </c>
       <c r="D1312" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1312" s="1" t="s">
         <v>1471</v>
@@ -31390,7 +31402,7 @@
         <v>1453</v>
       </c>
       <c r="D1314" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1314" s="1" t="s">
         <v>1471</v>
@@ -31410,7 +31422,7 @@
         <v>1453</v>
       </c>
       <c r="D1315" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1315" s="1" t="s">
         <v>1471</v>
@@ -31430,7 +31442,7 @@
         <v>1453</v>
       </c>
       <c r="D1316" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1316" s="1" t="s">
         <v>1471</v>
@@ -31470,7 +31482,7 @@
         <v>1455</v>
       </c>
       <c r="D1318" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1318" s="1" t="s">
         <v>1471</v>
@@ -31490,7 +31502,7 @@
         <v>1453</v>
       </c>
       <c r="D1319" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1319" s="1" t="s">
         <v>1471</v>
@@ -31510,7 +31522,7 @@
         <v>1455</v>
       </c>
       <c r="D1320" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1320" s="1" t="s">
         <v>1471</v>
@@ -31530,7 +31542,7 @@
         <v>1453</v>
       </c>
       <c r="D1321" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1321" s="1" t="s">
         <v>1471</v>
@@ -31550,7 +31562,7 @@
         <v>1453</v>
       </c>
       <c r="D1322" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1322" s="1" t="s">
         <v>1472</v>
@@ -31590,7 +31602,7 @@
         <v>1453</v>
       </c>
       <c r="D1324" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1324" s="1" t="s">
         <v>1471</v>
@@ -31610,7 +31622,7 @@
         <v>1453</v>
       </c>
       <c r="D1325" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1325" s="1" t="s">
         <v>1471</v>
@@ -31630,7 +31642,7 @@
         <v>1453</v>
       </c>
       <c r="D1326" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1326" s="1" t="s">
         <v>1471</v>
@@ -31650,7 +31662,7 @@
         <v>1453</v>
       </c>
       <c r="D1327" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1327" s="1" t="s">
         <v>1471</v>
@@ -31710,7 +31722,7 @@
         <v>1453</v>
       </c>
       <c r="D1330" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1330" s="1" t="s">
         <v>1472</v>
@@ -31730,7 +31742,7 @@
         <v>1453</v>
       </c>
       <c r="D1331" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1331" s="1" t="s">
         <v>1471</v>
@@ -31750,7 +31762,7 @@
         <v>1453</v>
       </c>
       <c r="D1332" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1332" s="1" t="s">
         <v>1472</v>
@@ -31770,7 +31782,7 @@
         <v>1453</v>
       </c>
       <c r="D1333" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1333" s="1" t="s">
         <v>1472</v>
@@ -31790,7 +31802,7 @@
         <v>1453</v>
       </c>
       <c r="D1334" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1334" s="1" t="s">
         <v>1472</v>
@@ -31810,7 +31822,7 @@
         <v>1453</v>
       </c>
       <c r="D1335" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1335" s="1" t="s">
         <v>1472</v>
@@ -31850,7 +31862,7 @@
         <v>1453</v>
       </c>
       <c r="D1337" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1337" s="1" t="s">
         <v>1472</v>
@@ -31910,7 +31922,7 @@
         <v>1453</v>
       </c>
       <c r="D1340" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1340" s="1" t="s">
         <v>1472</v>
@@ -31930,7 +31942,7 @@
         <v>1453</v>
       </c>
       <c r="D1341" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1341" s="1" t="s">
         <v>1472</v>
@@ -31950,7 +31962,7 @@
         <v>1453</v>
       </c>
       <c r="D1342" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1342" s="1" t="s">
         <v>1472</v>
@@ -31990,7 +32002,7 @@
         <v>1453</v>
       </c>
       <c r="D1344" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1344" s="1" t="s">
         <v>1472</v>
@@ -32010,7 +32022,7 @@
         <v>1453</v>
       </c>
       <c r="D1345" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1345" s="1" t="s">
         <v>1472</v>
@@ -32090,7 +32102,7 @@
         <v>1453</v>
       </c>
       <c r="D1349" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1349" s="1" t="s">
         <v>1472</v>
@@ -32170,7 +32182,7 @@
         <v>1453</v>
       </c>
       <c r="D1353" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1353" s="1" t="s">
         <v>1472</v>
@@ -32230,7 +32242,7 @@
         <v>1453</v>
       </c>
       <c r="D1356" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1356" s="1" t="s">
         <v>1472</v>
@@ -32250,7 +32262,7 @@
         <v>1453</v>
       </c>
       <c r="D1357" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1357" s="1" t="s">
         <v>1472</v>
@@ -32270,7 +32282,7 @@
         <v>1453</v>
       </c>
       <c r="D1358" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1358" s="1" t="s">
         <v>1472</v>
@@ -32290,7 +32302,7 @@
         <v>1453</v>
       </c>
       <c r="D1359" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1359" s="1" t="s">
         <v>1472</v>
@@ -32310,7 +32322,7 @@
         <v>1453</v>
       </c>
       <c r="D1360" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1360" s="1" t="s">
         <v>1472</v>
@@ -32350,7 +32362,7 @@
         <v>1453</v>
       </c>
       <c r="D1362" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1362" s="1" t="s">
         <v>1472</v>
@@ -32370,7 +32382,7 @@
         <v>1453</v>
       </c>
       <c r="D1363" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1363" s="1" t="s">
         <v>1472</v>
@@ -32450,7 +32462,7 @@
         <v>1453</v>
       </c>
       <c r="D1367" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1367" s="1" t="s">
         <v>1472</v>
@@ -32490,7 +32502,7 @@
         <v>1453</v>
       </c>
       <c r="D1369" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1369" s="1" t="s">
         <v>1472</v>
@@ -32530,7 +32542,7 @@
         <v>1453</v>
       </c>
       <c r="D1371" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1371" s="1" t="s">
         <v>1472</v>
@@ -32550,7 +32562,7 @@
         <v>1453</v>
       </c>
       <c r="D1372" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1372" s="1" t="s">
         <v>1472</v>
@@ -32570,7 +32582,7 @@
         <v>1453</v>
       </c>
       <c r="D1373" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1373" s="1" t="s">
         <v>1472</v>
@@ -32590,7 +32602,7 @@
         <v>1453</v>
       </c>
       <c r="D1374" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1374" s="1" t="s">
         <v>1472</v>
@@ -32610,7 +32622,7 @@
         <v>1453</v>
       </c>
       <c r="D1375" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1375" s="1" t="s">
         <v>1472</v>
@@ -32630,7 +32642,7 @@
         <v>1453</v>
       </c>
       <c r="D1376" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1376" s="1" t="s">
         <v>1472</v>
@@ -32650,7 +32662,7 @@
         <v>1453</v>
       </c>
       <c r="D1377" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1377" s="1" t="s">
         <v>1472</v>
@@ -32670,7 +32682,7 @@
         <v>1453</v>
       </c>
       <c r="D1378" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1378" s="1" t="s">
         <v>1472</v>
@@ -32690,7 +32702,7 @@
         <v>1453</v>
       </c>
       <c r="D1379" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1379" s="1" t="s">
         <v>1472</v>
@@ -32710,7 +32722,7 @@
         <v>1453</v>
       </c>
       <c r="D1380" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1380" s="1" t="s">
         <v>1472</v>
@@ -32730,7 +32742,7 @@
         <v>1453</v>
       </c>
       <c r="D1381" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1381" s="1" t="s">
         <v>1472</v>
@@ -32750,7 +32762,7 @@
         <v>1453</v>
       </c>
       <c r="D1382" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1382" s="1" t="s">
         <v>1460</v>
@@ -32770,7 +32782,7 @@
         <v>1453</v>
       </c>
       <c r="D1383" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1383" s="1" t="s">
         <v>1472</v>
@@ -32790,7 +32802,7 @@
         <v>1453</v>
       </c>
       <c r="D1384" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1384" s="1" t="s">
         <v>1472</v>
@@ -32870,7 +32882,7 @@
         <v>1453</v>
       </c>
       <c r="D1388" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1388" s="1" t="s">
         <v>1472</v>
@@ -32930,7 +32942,7 @@
         <v>1453</v>
       </c>
       <c r="D1391" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1391" s="1" t="s">
         <v>1472</v>
@@ -32970,7 +32982,7 @@
         <v>1453</v>
       </c>
       <c r="D1393" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1393" s="1" t="s">
         <v>1472</v>
@@ -33030,7 +33042,7 @@
         <v>1453</v>
       </c>
       <c r="D1396" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1396" s="1" t="s">
         <v>1472</v>
@@ -33050,7 +33062,7 @@
         <v>1453</v>
       </c>
       <c r="D1397" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1397" s="1" t="s">
         <v>1472</v>
@@ -33070,7 +33082,7 @@
         <v>1453</v>
       </c>
       <c r="D1398" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1398" s="1" t="s">
         <v>1472</v>
@@ -33090,7 +33102,7 @@
         <v>1453</v>
       </c>
       <c r="D1399" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1399" s="1" t="s">
         <v>1472</v>
@@ -33110,7 +33122,7 @@
         <v>1453</v>
       </c>
       <c r="D1400" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1400" s="1" t="s">
         <v>1472</v>
@@ -33150,7 +33162,7 @@
         <v>1453</v>
       </c>
       <c r="D1402" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1402" s="1" t="s">
         <v>1472</v>
@@ -33170,7 +33182,7 @@
         <v>1453</v>
       </c>
       <c r="D1403" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1403" s="1" t="s">
         <v>1472</v>
@@ -33190,7 +33202,7 @@
         <v>1455</v>
       </c>
       <c r="D1404" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1404" s="1" t="s">
         <v>1472</v>
@@ -33250,7 +33262,7 @@
         <v>1455</v>
       </c>
       <c r="D1407" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1407" s="1" t="s">
         <v>1472</v>
@@ -33270,7 +33282,7 @@
         <v>1453</v>
       </c>
       <c r="D1408" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1408" s="1" t="s">
         <v>1472</v>
@@ -33310,7 +33322,7 @@
         <v>1453</v>
       </c>
       <c r="D1410" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1410" s="1" t="s">
         <v>1472</v>
@@ -33330,7 +33342,7 @@
         <v>1453</v>
       </c>
       <c r="D1411" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1411" s="1" t="s">
         <v>1472</v>
@@ -33370,7 +33382,7 @@
         <v>1453</v>
       </c>
       <c r="D1413" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1413" s="1" t="s">
         <v>1472</v>
@@ -33430,7 +33442,7 @@
         <v>1453</v>
       </c>
       <c r="D1416" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1416" s="1" t="s">
         <v>1472</v>
@@ -33450,7 +33462,7 @@
         <v>1453</v>
       </c>
       <c r="D1417" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1417" s="1" t="s">
         <v>1472</v>
@@ -33470,7 +33482,7 @@
         <v>1453</v>
       </c>
       <c r="D1418" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1418" s="1" t="s">
         <v>1472</v>
@@ -33570,7 +33582,7 @@
         <v>1455</v>
       </c>
       <c r="D1423" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1423" s="1" t="s">
         <v>1472</v>
@@ -33590,7 +33602,7 @@
         <v>1453</v>
       </c>
       <c r="D1424" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1424" s="1" t="s">
         <v>1472</v>
@@ -33610,7 +33622,7 @@
         <v>1453</v>
       </c>
       <c r="D1425" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1425" s="1" t="s">
         <v>1472</v>
@@ -33630,7 +33642,7 @@
         <v>1453</v>
       </c>
       <c r="D1426" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1426" s="1" t="s">
         <v>1472</v>
@@ -33650,7 +33662,7 @@
         <v>1453</v>
       </c>
       <c r="D1427" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1427" s="1" t="s">
         <v>1472</v>
@@ -33670,7 +33682,7 @@
         <v>1453</v>
       </c>
       <c r="D1428" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1428" s="1" t="s">
         <v>1472</v>
@@ -33730,7 +33742,7 @@
         <v>1453</v>
       </c>
       <c r="D1431" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1431" s="1" t="s">
         <v>1472</v>
@@ -33750,7 +33762,7 @@
         <v>1453</v>
       </c>
       <c r="D1432" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1432" s="1" t="s">
         <v>1472</v>
@@ -33770,7 +33782,7 @@
         <v>1453</v>
       </c>
       <c r="D1433" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1433" s="1" t="s">
         <v>1472</v>
@@ -33790,7 +33802,7 @@
         <v>1453</v>
       </c>
       <c r="D1434" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1434" s="1" t="s">
         <v>1472</v>
@@ -33810,7 +33822,7 @@
         <v>1453</v>
       </c>
       <c r="D1435" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1435" s="1" t="s">
         <v>1472</v>
@@ -33830,7 +33842,7 @@
         <v>1453</v>
       </c>
       <c r="D1436" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1436" s="1" t="s">
         <v>1472</v>
@@ -33850,7 +33862,7 @@
         <v>1453</v>
       </c>
       <c r="D1437" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1437" s="1" t="s">
         <v>1472</v>
@@ -33870,7 +33882,7 @@
         <v>1453</v>
       </c>
       <c r="D1438" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1438" s="1" t="s">
         <v>1472</v>
@@ -33890,7 +33902,7 @@
         <v>1453</v>
       </c>
       <c r="D1439" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1439" s="1" t="s">
         <v>1472</v>
@@ -33910,7 +33922,7 @@
         <v>1453</v>
       </c>
       <c r="D1440" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1440" s="1" t="s">
         <v>1472</v>
@@ -33930,7 +33942,7 @@
         <v>1455</v>
       </c>
       <c r="D1441" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1441" s="1" t="s">
         <v>1460</v>
@@ -33950,7 +33962,7 @@
         <v>1453</v>
       </c>
       <c r="D1442" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1442" s="1" t="s">
         <v>1460</v>
@@ -34030,7 +34042,7 @@
         <v>1453</v>
       </c>
       <c r="D1446" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1446" s="1" t="s">
         <v>1460</v>
@@ -34050,7 +34062,7 @@
         <v>1453</v>
       </c>
       <c r="D1447" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1447" s="1" t="s">
         <v>1460</v>
@@ -34110,7 +34122,7 @@
         <v>1453</v>
       </c>
       <c r="D1450" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1450" s="1" t="s">
         <v>1460</v>
@@ -34150,7 +34162,7 @@
         <v>1453</v>
       </c>
       <c r="D1452" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1452" s="1" t="s">
         <v>1460</v>
@@ -34170,7 +34182,7 @@
         <v>1453</v>
       </c>
       <c r="D1453" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1453" s="1" t="s">
         <v>1460</v>
@@ -34190,7 +34202,7 @@
         <v>1453</v>
       </c>
       <c r="D1454" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1454" s="1" t="s">
         <v>1460</v>
@@ -34210,7 +34222,7 @@
         <v>1453</v>
       </c>
       <c r="D1455" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1455" s="1" t="s">
         <v>1460</v>
@@ -34230,7 +34242,7 @@
         <v>1453</v>
       </c>
       <c r="D1456" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1456" s="1" t="s">
         <v>1460</v>
@@ -34250,7 +34262,7 @@
         <v>1453</v>
       </c>
       <c r="D1457" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1457" s="1" t="s">
         <v>1460</v>
@@ -34270,7 +34282,7 @@
         <v>1453</v>
       </c>
       <c r="D1458" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1458" s="1" t="s">
         <v>1460</v>
@@ -34290,7 +34302,7 @@
         <v>1453</v>
       </c>
       <c r="D1459" s="3" t="s">
-        <v>1456</v>
+        <v>1486</v>
       </c>
       <c r="E1459" s="1" t="s">
         <v>1460</v>

--- a/device_data.xlsx
+++ b/device_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/manpreet/Documents/GitHub/p12check/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72CFE41F-D20A-BE49-A03B-728C0E330BE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C68FEC-3F92-7843-82A4-E9697EDA24CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="37320" windowHeight="26700" xr2:uid="{39D45C72-288B-1D4A-959F-055744252364}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="26700" xr2:uid="{39D45C72-288B-1D4A-959F-055744252364}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -233,7 +233,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4380" uniqueCount="1476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4410" uniqueCount="1486">
   <si>
     <t>00008120-0010353E3C9B401E</t>
   </si>
@@ -4661,6 +4661,36 @@
   </si>
   <si>
     <t>developer_account_renewal_date</t>
+  </si>
+  <si>
+    <t>00008110-000621A60C62801E</t>
+  </si>
+  <si>
+    <t>00008110-001A189A11FB801E</t>
+  </si>
+  <si>
+    <t>00008101-00123D461A20001E</t>
+  </si>
+  <si>
+    <t>00008130-000E44881011401C</t>
+  </si>
+  <si>
+    <t>00008130-000108290C93803A</t>
+  </si>
+  <si>
+    <t>00008120-0006058E26EB401E</t>
+  </si>
+  <si>
+    <t>00008130-000C1C960ADB803A</t>
+  </si>
+  <si>
+    <t>00008101-00123D362286001E</t>
+  </si>
+  <si>
+    <t>00008120-000A03800E90201E</t>
+  </si>
+  <si>
+    <t>00008030-000A6D001A92802E</t>
   </si>
 </sst>
 </file>
@@ -4668,8 +4698,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00"/>
-    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -4734,7 +4764,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4742,7 +4772,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4754,17 +4784,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5082,9 +5118,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9F85601-2C14-884C-88F5-15863EEFD235}">
   <dimension ref="A1:F2604"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScale="168" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1442" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1470" sqref="A1470"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -34278,45 +34314,205 @@
         <v>45857</v>
       </c>
     </row>
-    <row r="1460" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1460" s="2"/>
-      <c r="B1460" s="8"/>
-    </row>
-    <row r="1461" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1461" s="2"/>
-      <c r="B1461" s="8"/>
-    </row>
-    <row r="1462" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1462" s="2"/>
-      <c r="B1462" s="8"/>
-    </row>
-    <row r="1463" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1463" s="2"/>
-      <c r="B1463" s="8"/>
-    </row>
-    <row r="1464" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1464" s="2"/>
-      <c r="B1464" s="8"/>
-    </row>
-    <row r="1465" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1465" s="2"/>
-      <c r="B1465" s="8"/>
-    </row>
-    <row r="1466" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1466" s="2"/>
-      <c r="B1466" s="8"/>
-    </row>
-    <row r="1467" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1467" s="2"/>
-      <c r="B1467" s="8"/>
-    </row>
-    <row r="1468" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1468" s="2"/>
-      <c r="B1468" s="8"/>
-    </row>
-    <row r="1469" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1469" s="2"/>
-      <c r="B1469" s="8"/>
+    <row r="1460" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1460" s="11" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B1460" s="8">
+        <v>45494</v>
+      </c>
+      <c r="C1460" s="12" t="s">
+        <v>1451</v>
+      </c>
+      <c r="D1460" s="8">
+        <v>73050</v>
+      </c>
+      <c r="E1460" s="1" t="s">
+        <v>1457</v>
+      </c>
+      <c r="F1460" s="9">
+        <v>45857</v>
+      </c>
+    </row>
+    <row r="1461" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1461" s="11" t="s">
+        <v>1477</v>
+      </c>
+      <c r="B1461" s="8">
+        <v>45495</v>
+      </c>
+      <c r="C1461" s="12" t="s">
+        <v>1451</v>
+      </c>
+      <c r="D1461" s="8">
+        <v>73050</v>
+      </c>
+      <c r="E1461" s="1" t="s">
+        <v>1457</v>
+      </c>
+      <c r="F1461" s="9">
+        <v>45857</v>
+      </c>
+    </row>
+    <row r="1462" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1462" s="11" t="s">
+        <v>1478</v>
+      </c>
+      <c r="B1462" s="8">
+        <v>45495</v>
+      </c>
+      <c r="C1462" s="12" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D1462" s="8">
+        <v>45860</v>
+      </c>
+      <c r="E1462" s="1" t="s">
+        <v>1457</v>
+      </c>
+      <c r="F1462" s="9">
+        <v>45857</v>
+      </c>
+    </row>
+    <row r="1463" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1463" s="11" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B1463" s="8">
+        <v>45495</v>
+      </c>
+      <c r="C1463" s="12" t="s">
+        <v>1451</v>
+      </c>
+      <c r="D1463" s="8">
+        <v>73050</v>
+      </c>
+      <c r="E1463" s="1" t="s">
+        <v>1457</v>
+      </c>
+      <c r="F1463" s="9">
+        <v>45857</v>
+      </c>
+    </row>
+    <row r="1464" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1464" s="11" t="s">
+        <v>1480</v>
+      </c>
+      <c r="B1464" s="8">
+        <v>45495</v>
+      </c>
+      <c r="C1464" s="12" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D1464" s="8">
+        <v>45860</v>
+      </c>
+      <c r="E1464" s="1" t="s">
+        <v>1457</v>
+      </c>
+      <c r="F1464" s="9">
+        <v>45857</v>
+      </c>
+    </row>
+    <row r="1465" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1465" s="11" t="s">
+        <v>1481</v>
+      </c>
+      <c r="B1465" s="8">
+        <v>45495</v>
+      </c>
+      <c r="C1465" s="12" t="s">
+        <v>1451</v>
+      </c>
+      <c r="D1465" s="8">
+        <v>73050</v>
+      </c>
+      <c r="E1465" s="1" t="s">
+        <v>1457</v>
+      </c>
+      <c r="F1465" s="9">
+        <v>45857</v>
+      </c>
+    </row>
+    <row r="1466" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1466" s="11" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B1466" s="8">
+        <v>45495</v>
+      </c>
+      <c r="C1466" s="12" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D1466" s="8">
+        <v>45860</v>
+      </c>
+      <c r="E1466" s="1" t="s">
+        <v>1457</v>
+      </c>
+      <c r="F1466" s="9">
+        <v>45857</v>
+      </c>
+    </row>
+    <row r="1467" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1467" s="11" t="s">
+        <v>1483</v>
+      </c>
+      <c r="B1467" s="8">
+        <v>45495</v>
+      </c>
+      <c r="C1467" s="12" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D1467" s="8">
+        <v>45860</v>
+      </c>
+      <c r="E1467" s="1" t="s">
+        <v>1457</v>
+      </c>
+      <c r="F1467" s="9">
+        <v>45857</v>
+      </c>
+    </row>
+    <row r="1468" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1468" s="11" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B1468" s="8">
+        <v>45495</v>
+      </c>
+      <c r="C1468" s="12" t="s">
+        <v>1451</v>
+      </c>
+      <c r="D1468" s="8">
+        <v>73050</v>
+      </c>
+      <c r="E1468" s="1" t="s">
+        <v>1457</v>
+      </c>
+      <c r="F1468" s="9">
+        <v>45857</v>
+      </c>
+    </row>
+    <row r="1469" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1469" s="11" t="s">
+        <v>1485</v>
+      </c>
+      <c r="B1469" s="8">
+        <v>45495</v>
+      </c>
+      <c r="C1469" s="12" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D1469" s="8">
+        <v>45860</v>
+      </c>
+      <c r="E1469" s="1" t="s">
+        <v>1457</v>
+      </c>
+      <c r="F1469" s="9">
+        <v>45857</v>
+      </c>
     </row>
     <row r="1470" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1470" s="2"/>
